--- a/years/1990.xlsx
+++ b/years/1990.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
   </bookViews>
   <sheets>
-    <sheet name="bNIxLyjM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="bNIxLyjM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -35,7 +35,7 @@
     <t>Şehir</t>
   </si>
   <si>
-    <t>Köy </t>
+    <t>Köy</t>
   </si>
   <si>
     <t>Erkek</t>
@@ -275,12 +275,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,22 +285,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -312,7 +293,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -320,7 +301,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -328,7 +309,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF7F0000"/>
       <name val="Arial"/>
@@ -352,104 +333,68 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -508,2505 +453,2835 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="8.71255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="36.5703125"/>
+    <col min="2" max="9" width="8.7109375"/>
+    <col min="10" max="10" width="6.5703125"/>
+    <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B14" s="6">
         <v>56473035</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C14" s="6">
         <v>28607047</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D14" s="6">
         <v>27865988</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E14" s="6">
         <v>33326351</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F14" s="6">
         <v>17247553</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G14" s="6">
         <v>16078798</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H14" s="6">
         <v>23146684</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I14" s="6">
         <v>11359494</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J14" s="6">
         <v>11787190</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B15" s="7">
         <v>1934907</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C15" s="7">
         <v>973878</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D15" s="7">
         <v>961029</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E15" s="7">
         <v>1350339</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F15" s="7">
         <v>684221</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G15" s="7">
         <v>666118</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H15" s="7">
         <v>584568</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I15" s="7">
         <v>289657</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J15" s="7">
         <v>294911</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B16" s="7">
         <v>513131</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C16" s="7">
         <v>256699</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D16" s="7">
         <v>256432</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E16" s="7">
         <v>219304</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F16" s="7">
         <v>113142</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G16" s="7">
         <v>106162</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H16" s="7">
         <v>293827</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I16" s="7">
         <v>143557</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J16" s="7">
         <v>150270</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B17" s="7">
         <v>739223</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C17" s="7">
         <v>368950</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D17" s="7">
         <v>370273</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E17" s="7">
         <v>306209</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F17" s="7">
         <v>156784</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G17" s="7">
         <v>149425</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H17" s="7">
         <v>433014</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I17" s="7">
         <v>212166</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J17" s="7">
         <v>220848</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B18" s="7">
         <v>437093</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C18" s="7">
         <v>221327</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D18" s="7">
         <v>215766</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E18" s="7">
         <v>158758</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F18" s="7">
         <v>86687</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G18" s="7">
         <v>72071</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H18" s="7">
         <v>278335</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I18" s="7">
         <v>134640</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J18" s="7">
         <v>143695</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B19" s="7">
         <v>357191</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C19" s="7">
         <v>179895</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D19" s="7">
         <v>177296</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E19" s="7">
         <v>162544</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F19" s="7">
         <v>84486</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G19" s="7">
         <v>78058</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H19" s="7">
         <v>194647</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="I19" s="7">
         <v>95409</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J19" s="7">
         <v>99238</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B20" s="7">
         <v>3236626</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C20" s="7">
         <v>1658276</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D20" s="7">
         <v>1578350</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E20" s="7">
         <v>2836719</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F20" s="7">
         <v>1460015</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G20" s="7">
         <v>1376704</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H20" s="7">
         <v>399907</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I20" s="7">
         <v>198261</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J20" s="7">
         <v>201646</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B21" s="7">
         <v>1132211</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C21" s="7">
         <v>588656</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D21" s="7">
         <v>543555</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E21" s="7">
         <v>602194</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F21" s="7">
         <v>319719</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G21" s="7">
         <v>282475</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H21" s="7">
         <v>530017</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I21" s="7">
         <v>268937</v>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J21" s="7">
         <v>261080</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B22" s="7">
         <v>212833</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C22" s="7">
         <v>104093</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D22" s="7">
         <v>108740</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E22" s="7">
         <v>66097</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F22" s="7">
         <v>35324</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G22" s="7">
         <v>30773</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H22" s="7">
         <v>146736</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I22" s="7">
         <v>68769</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J22" s="7">
         <v>77967</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B23" s="7">
         <v>824816</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C23" s="7">
         <v>416304</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D23" s="7">
         <v>408512</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E23" s="7">
         <v>384711</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F23" s="7">
         <v>197623</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G23" s="7">
         <v>187088</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H23" s="7">
         <v>440105</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I23" s="7">
         <v>218681</v>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J23" s="7">
         <v>221424</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B24" s="7">
         <v>973314</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C24" s="7">
         <v>496661</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D24" s="7">
         <v>476653</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E24" s="7">
         <v>468758</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F24" s="7">
         <v>242346</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G24" s="7">
         <v>226412</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H24" s="7">
         <v>504556</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I24" s="7">
         <v>254315</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J24" s="7">
         <v>250241</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B25" s="7">
         <v>175526</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C25" s="7">
         <v>90978</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D25" s="7">
         <v>84548</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E25" s="7">
         <v>90373</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F25" s="7">
         <v>49092</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G25" s="7">
         <v>41281</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H25" s="7">
         <v>85153</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I25" s="7">
         <v>41886</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J25" s="7">
         <v>43267</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B26" s="7">
         <v>250966</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C26" s="7">
         <v>124710</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D26" s="7">
         <v>126256</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E26" s="7">
         <v>86648</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F26" s="7">
         <v>45999</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G26" s="7">
         <v>40649</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H26" s="7">
         <v>164318</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I26" s="7">
         <v>78711</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J26" s="7">
         <v>85607</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B27" s="7">
         <v>330115</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C27" s="7">
         <v>170982</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D27" s="7">
         <v>159133</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E27" s="7">
         <v>142947</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F27" s="7">
         <v>78164</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G27" s="7">
         <v>64783</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H27" s="7">
         <v>187168</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I27" s="7">
         <v>92818</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J27" s="7">
         <v>94350</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B28" s="7">
         <v>536869</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C28" s="7">
         <v>268870</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D28" s="7">
         <v>267999</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E28" s="7">
         <v>203122</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F28" s="7">
         <v>107499</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G28" s="7">
         <v>95623</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H28" s="7">
         <v>333747</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I28" s="7">
         <v>161371</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J28" s="7">
         <v>172376</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B29" s="7">
         <v>254899</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C29" s="7">
         <v>129742</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D29" s="7">
         <v>125157</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E29" s="7">
         <v>129112</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F29" s="7">
         <v>69094</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G29" s="7">
         <v>60018</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H29" s="7">
         <v>125787</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I29" s="7">
         <v>60648</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J29" s="7">
         <v>65139</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B30" s="7">
         <v>1603137</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C30" s="7">
         <v>810923</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D30" s="7">
         <v>792214</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E30" s="7">
         <v>1157805</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F30" s="7">
         <v>588468</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G30" s="7">
         <v>569337</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H30" s="7">
         <v>445332</v>
       </c>
-      <c r="I27" s="9" t="n">
+      <c r="I30" s="7">
         <v>222455</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J30" s="7">
         <v>222877</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B31" s="7">
         <v>432263</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C31" s="7">
         <v>225099</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D31" s="7">
         <v>207164</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E31" s="7">
         <v>168529</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F31" s="7">
         <v>91612</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G31" s="7">
         <v>76917</v>
       </c>
-      <c r="H28" s="9" t="n">
+      <c r="H31" s="7">
         <v>263734</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I31" s="7">
         <v>133487</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J31" s="7">
         <v>130247</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B32" s="7">
         <v>279129</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C32" s="7">
         <v>139025</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D32" s="7">
         <v>140104</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E32" s="7">
         <v>113855</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F32" s="7">
         <v>60885</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G32" s="7">
         <v>52970</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H32" s="7">
         <v>165274</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="I32" s="7">
         <v>78140</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J32" s="7">
         <v>87134</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B33" s="7">
         <v>609863</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C33" s="7">
         <v>294082</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D33" s="7">
         <v>315781</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E33" s="7">
         <v>253804</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F33" s="7">
         <v>127863</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G33" s="7">
         <v>125941</v>
       </c>
-      <c r="H30" s="9" t="n">
+      <c r="H33" s="7">
         <v>356059</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="I33" s="7">
         <v>166219</v>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J33" s="7">
         <v>189840</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="34" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B34" s="7">
         <v>750882</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C34" s="7">
         <v>379129</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D34" s="7">
         <v>371753</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E34" s="7">
         <v>337793</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F34" s="7">
         <v>175039</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G34" s="7">
         <v>162754</v>
       </c>
-      <c r="H31" s="9" t="n">
+      <c r="H34" s="7">
         <v>413089</v>
       </c>
-      <c r="I31" s="9" t="n">
+      <c r="I34" s="7">
         <v>204090</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J34" s="7">
         <v>208999</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+    <row r="35" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B35" s="7">
         <v>1094996</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C35" s="7">
         <v>559446</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D35" s="7">
         <v>535550</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E35" s="7">
         <v>600640</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F35" s="7">
         <v>314180</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G35" s="7">
         <v>286460</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H35" s="7">
         <v>494356</v>
       </c>
-      <c r="I32" s="9" t="n">
+      <c r="I35" s="7">
         <v>245266</v>
       </c>
-      <c r="J32" s="9" t="n">
+      <c r="J35" s="7">
         <v>249090</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="36" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B36" s="7">
         <v>404599</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C36" s="7">
         <v>213966</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D36" s="7">
         <v>190633</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E36" s="7">
         <v>210421</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F36" s="7">
         <v>115537</v>
       </c>
-      <c r="G33" s="9" t="n">
+      <c r="G36" s="7">
         <v>94884</v>
       </c>
-      <c r="H33" s="9" t="n">
+      <c r="H36" s="7">
         <v>194178</v>
       </c>
-      <c r="I33" s="9" t="n">
+      <c r="I36" s="7">
         <v>98429</v>
       </c>
-      <c r="J33" s="9" t="n">
+      <c r="J36" s="7">
         <v>95749</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+    <row r="37" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B37" s="7">
         <v>498225</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C37" s="7">
         <v>247321</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D37" s="7">
         <v>250904</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E37" s="7">
         <v>272790</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F37" s="7">
         <v>139006</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G37" s="7">
         <v>133784</v>
       </c>
-      <c r="H34" s="9" t="n">
+      <c r="H37" s="7">
         <v>225435</v>
       </c>
-      <c r="I34" s="9" t="n">
+      <c r="I37" s="7">
         <v>108315</v>
       </c>
-      <c r="J34" s="9" t="n">
+      <c r="J37" s="7">
         <v>117120</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="38" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B38" s="7">
         <v>299251</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C38" s="7">
         <v>156387</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D38" s="7">
         <v>142864</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E38" s="7">
         <v>144144</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F38" s="7">
         <v>81121</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="G38" s="7">
         <v>63023</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H38" s="7">
         <v>155107</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I38" s="7">
         <v>75266</v>
       </c>
-      <c r="J35" s="9" t="n">
+      <c r="J38" s="7">
         <v>79841</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="39" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B39" s="7">
         <v>848201</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C39" s="7">
         <v>427701</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D39" s="7">
         <v>420500</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E39" s="7">
         <v>400348</v>
       </c>
-      <c r="F36" s="9" t="n">
+      <c r="F39" s="7">
         <v>213248</v>
       </c>
-      <c r="G36" s="9" t="n">
+      <c r="G39" s="7">
         <v>187100</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H39" s="7">
         <v>447853</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="I39" s="7">
         <v>214453</v>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J39" s="7">
         <v>233400</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="40" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B40" s="7">
         <v>641057</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C40" s="7">
         <v>321928</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D40" s="7">
         <v>319129</v>
       </c>
-      <c r="E37" s="9" t="n">
+      <c r="E40" s="7">
         <v>477436</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F40" s="7">
         <v>240681</v>
       </c>
-      <c r="G37" s="9" t="n">
+      <c r="G40" s="7">
         <v>236755</v>
       </c>
-      <c r="H37" s="9" t="n">
+      <c r="H40" s="7">
         <v>163621</v>
       </c>
-      <c r="I37" s="9" t="n">
+      <c r="I40" s="7">
         <v>81247</v>
       </c>
-      <c r="J37" s="9" t="n">
+      <c r="J40" s="7">
         <v>82374</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+    <row r="41" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B41" s="7">
         <v>1140594</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C41" s="7">
         <v>577881</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D41" s="7">
         <v>562713</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="E41" s="7">
         <v>821127</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F41" s="7">
         <v>422539</v>
       </c>
-      <c r="G38" s="9" t="n">
+      <c r="G41" s="7">
         <v>398588</v>
       </c>
-      <c r="H38" s="9" t="n">
+      <c r="H41" s="7">
         <v>319467</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I41" s="7">
         <v>155342</v>
       </c>
-      <c r="J38" s="9" t="n">
+      <c r="J41" s="7">
         <v>164125</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+    <row r="42" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B42" s="7">
         <v>499087</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C42" s="7">
         <v>246597</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D42" s="7">
         <v>252490</v>
       </c>
-      <c r="E39" s="9" t="n">
+      <c r="E42" s="7">
         <v>219114</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="F42" s="7">
         <v>115381</v>
       </c>
-      <c r="G39" s="9" t="n">
+      <c r="G42" s="7">
         <v>103733</v>
       </c>
-      <c r="H39" s="9" t="n">
+      <c r="H42" s="7">
         <v>279973</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="I42" s="7">
         <v>131216</v>
       </c>
-      <c r="J39" s="9" t="n">
+      <c r="J42" s="7">
         <v>148757</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="43" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B43" s="7">
         <v>169375</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C43" s="7">
         <v>81621</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D43" s="7">
         <v>87754</v>
       </c>
-      <c r="E40" s="9" t="n">
+      <c r="E43" s="7">
         <v>58996</v>
       </c>
-      <c r="F40" s="9" t="n">
+      <c r="F43" s="7">
         <v>31921</v>
       </c>
-      <c r="G40" s="9" t="n">
+      <c r="G43" s="7">
         <v>27075</v>
       </c>
-      <c r="H40" s="9" t="n">
+      <c r="H43" s="7">
         <v>110379</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="I43" s="7">
         <v>49700</v>
       </c>
-      <c r="J40" s="9" t="n">
+      <c r="J43" s="7">
         <v>60679</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+    <row r="44" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B44" s="7">
         <v>172479</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C44" s="7">
         <v>93913</v>
       </c>
-      <c r="D41" s="9" t="n">
+      <c r="D44" s="7">
         <v>78566</v>
       </c>
-      <c r="E41" s="9" t="n">
+      <c r="E44" s="7">
         <v>71099</v>
       </c>
-      <c r="F41" s="9" t="n">
+      <c r="F44" s="7">
         <v>42819</v>
       </c>
-      <c r="G41" s="9" t="n">
+      <c r="G44" s="7">
         <v>28280</v>
       </c>
-      <c r="H41" s="9" t="n">
+      <c r="H44" s="7">
         <v>101380</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="I44" s="7">
         <v>51094</v>
       </c>
-      <c r="J41" s="9" t="n">
+      <c r="J44" s="7">
         <v>50286</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+    <row r="45" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B45" s="7">
         <v>1109754</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C45" s="7">
         <v>556548</v>
       </c>
-      <c r="D42" s="9" t="n">
+      <c r="D45" s="7">
         <v>553206</v>
       </c>
-      <c r="E42" s="9" t="n">
+      <c r="E45" s="7">
         <v>531707</v>
       </c>
-      <c r="F42" s="9" t="n">
+      <c r="F45" s="7">
         <v>268762</v>
       </c>
-      <c r="G42" s="9" t="n">
+      <c r="G45" s="7">
         <v>262945</v>
       </c>
-      <c r="H42" s="9" t="n">
+      <c r="H45" s="7">
         <v>578047</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I45" s="7">
         <v>287786</v>
       </c>
-      <c r="J42" s="9" t="n">
+      <c r="J45" s="7">
         <v>290261</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+    <row r="46" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B46" s="7">
         <v>434771</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C46" s="7">
         <v>224403</v>
       </c>
-      <c r="D43" s="9" t="n">
+      <c r="D46" s="7">
         <v>210368</v>
       </c>
-      <c r="E43" s="9" t="n">
+      <c r="E46" s="7">
         <v>229574</v>
       </c>
-      <c r="F43" s="9" t="n">
+      <c r="F46" s="7">
         <v>125176</v>
       </c>
-      <c r="G43" s="9" t="n">
+      <c r="G46" s="7">
         <v>104398</v>
       </c>
-      <c r="H43" s="9" t="n">
+      <c r="H46" s="7">
         <v>205197</v>
       </c>
-      <c r="I43" s="9" t="n">
+      <c r="I46" s="7">
         <v>99227</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J46" s="7">
         <v>105970</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+    <row r="47" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B47" s="7">
         <v>1266995</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C47" s="7">
         <v>645244</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D47" s="7">
         <v>621751</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E47" s="7">
         <v>787284</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F47" s="7">
         <v>402880</v>
       </c>
-      <c r="G44" s="9" t="n">
+      <c r="G47" s="7">
         <v>384404</v>
       </c>
-      <c r="H44" s="9" t="n">
+      <c r="H47" s="7">
         <v>479711</v>
       </c>
-      <c r="I44" s="9" t="n">
+      <c r="I47" s="7">
         <v>242364</v>
       </c>
-      <c r="J44" s="9" t="n">
+      <c r="J47" s="7">
         <v>237347</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+    <row r="48" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B48" s="7">
         <v>7309190</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C48" s="7">
         <v>3798761</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D48" s="7">
         <v>3510429</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E48" s="7">
         <v>6753929</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F48" s="7">
         <v>3494553</v>
       </c>
-      <c r="G45" s="9" t="n">
+      <c r="G48" s="7">
         <v>3259376</v>
       </c>
-      <c r="H45" s="9" t="n">
+      <c r="H48" s="7">
         <v>555261</v>
       </c>
-      <c r="I45" s="9" t="n">
+      <c r="I48" s="7">
         <v>304208</v>
       </c>
-      <c r="J45" s="9" t="n">
+      <c r="J48" s="7">
         <v>251053</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+    <row r="49" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B49" s="7">
         <v>2694770</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C49" s="7">
         <v>1379778</v>
       </c>
-      <c r="D46" s="9" t="n">
+      <c r="D49" s="7">
         <v>1314992</v>
       </c>
-      <c r="E46" s="9" t="n">
+      <c r="E49" s="7">
         <v>2134816</v>
       </c>
-      <c r="F46" s="9" t="n">
+      <c r="F49" s="7">
         <v>1096597</v>
       </c>
-      <c r="G46" s="9" t="n">
+      <c r="G49" s="7">
         <v>1038219</v>
       </c>
-      <c r="H46" s="9" t="n">
+      <c r="H49" s="7">
         <v>559954</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="I49" s="7">
         <v>283181</v>
       </c>
-      <c r="J46" s="9" t="n">
+      <c r="J49" s="7">
         <v>276773</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+    <row r="50" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B50" s="7">
         <v>662155</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C50" s="7">
         <v>334065</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D50" s="7">
         <v>328090</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E50" s="7">
         <v>209463</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F50" s="7">
         <v>116126</v>
       </c>
-      <c r="G47" s="9" t="n">
+      <c r="G50" s="7">
         <v>93337</v>
       </c>
-      <c r="H47" s="9" t="n">
+      <c r="H50" s="7">
         <v>452692</v>
       </c>
-      <c r="I47" s="9" t="n">
+      <c r="I50" s="7">
         <v>217939</v>
       </c>
-      <c r="J47" s="9" t="n">
+      <c r="J50" s="7">
         <v>234753</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+    <row r="51" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B51" s="7">
         <v>423611</v>
       </c>
-      <c r="C48" s="9" t="n">
+      <c r="C51" s="7">
         <v>202583</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D51" s="7">
         <v>221028</v>
       </c>
-      <c r="E48" s="9" t="n">
+      <c r="E51" s="7">
         <v>148710</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F51" s="7">
         <v>76447</v>
       </c>
-      <c r="G48" s="9" t="n">
+      <c r="G51" s="7">
         <v>72263</v>
       </c>
-      <c r="H48" s="9" t="n">
+      <c r="H51" s="7">
         <v>274901</v>
       </c>
-      <c r="I48" s="9" t="n">
+      <c r="I51" s="7">
         <v>126136</v>
       </c>
-      <c r="J48" s="9" t="n">
+      <c r="J51" s="7">
         <v>148765</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+    <row r="52" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B52" s="7">
         <v>943484</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C52" s="7">
         <v>471874</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D52" s="7">
         <v>471610</v>
       </c>
-      <c r="E49" s="9" t="n">
+      <c r="E52" s="7">
         <v>604072</v>
       </c>
-      <c r="F49" s="9" t="n">
+      <c r="F52" s="7">
         <v>308228</v>
       </c>
-      <c r="G49" s="9" t="n">
+      <c r="G52" s="7">
         <v>295844</v>
       </c>
-      <c r="H49" s="9" t="n">
+      <c r="H52" s="7">
         <v>339412</v>
       </c>
-      <c r="I49" s="9" t="n">
+      <c r="I52" s="7">
         <v>163646</v>
       </c>
-      <c r="J49" s="9" t="n">
+      <c r="J52" s="7">
         <v>175766</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+    <row r="53" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B53" s="7">
         <v>309512</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C53" s="7">
         <v>166073</v>
       </c>
-      <c r="D50" s="9" t="n">
+      <c r="D53" s="7">
         <v>143439</v>
       </c>
-      <c r="E50" s="9" t="n">
+      <c r="E53" s="7">
         <v>149532</v>
       </c>
-      <c r="F50" s="9" t="n">
+      <c r="F53" s="7">
         <v>83619</v>
       </c>
-      <c r="G50" s="9" t="n">
+      <c r="G53" s="7">
         <v>65913</v>
       </c>
-      <c r="H50" s="9" t="n">
+      <c r="H53" s="7">
         <v>159980</v>
       </c>
-      <c r="I50" s="9" t="n">
+      <c r="I53" s="7">
         <v>82454</v>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J53" s="7">
         <v>77526</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+    <row r="54" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="n">
+      <c r="B54" s="7">
         <v>256862</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C54" s="7">
         <v>124639</v>
       </c>
-      <c r="D51" s="9" t="n">
+      <c r="D54" s="7">
         <v>132223</v>
       </c>
-      <c r="E51" s="9" t="n">
+      <c r="E54" s="7">
         <v>126406</v>
       </c>
-      <c r="F51" s="9" t="n">
+      <c r="F54" s="7">
         <v>63396</v>
       </c>
-      <c r="G51" s="9" t="n">
+      <c r="G54" s="7">
         <v>63010</v>
       </c>
-      <c r="H51" s="9" t="n">
+      <c r="H54" s="7">
         <v>130456</v>
       </c>
-      <c r="I51" s="9" t="n">
+      <c r="I54" s="7">
         <v>61243</v>
       </c>
-      <c r="J51" s="9" t="n">
+      <c r="J54" s="7">
         <v>69213</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+    <row r="55" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="n">
+      <c r="B55" s="7">
         <v>936163</v>
       </c>
-      <c r="C52" s="9" t="n">
+      <c r="C55" s="7">
         <v>486436</v>
       </c>
-      <c r="D52" s="9" t="n">
+      <c r="D55" s="7">
         <v>449727</v>
       </c>
-      <c r="E52" s="9" t="n">
+      <c r="E55" s="7">
         <v>582559</v>
       </c>
-      <c r="F52" s="9" t="n">
+      <c r="F55" s="7">
         <v>303690</v>
       </c>
-      <c r="G52" s="9" t="n">
+      <c r="G55" s="7">
         <v>278869</v>
       </c>
-      <c r="H52" s="9" t="n">
+      <c r="H55" s="7">
         <v>353604</v>
       </c>
-      <c r="I52" s="9" t="n">
+      <c r="I55" s="7">
         <v>182746</v>
       </c>
-      <c r="J52" s="9" t="n">
+      <c r="J55" s="7">
         <v>170858</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+    <row r="56" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B56" s="7">
         <v>1750303</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C56" s="7">
         <v>873886</v>
       </c>
-      <c r="D53" s="9" t="n">
+      <c r="D56" s="7">
         <v>876417</v>
       </c>
-      <c r="E53" s="9" t="n">
+      <c r="E56" s="7">
         <v>963128</v>
       </c>
-      <c r="F53" s="9" t="n">
+      <c r="F56" s="7">
         <v>490789</v>
       </c>
-      <c r="G53" s="9" t="n">
+      <c r="G56" s="7">
         <v>472339</v>
       </c>
-      <c r="H53" s="9" t="n">
+      <c r="H56" s="7">
         <v>787175</v>
       </c>
-      <c r="I53" s="9" t="n">
+      <c r="I56" s="7">
         <v>383097</v>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J56" s="7">
         <v>404078</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+    <row r="57" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B57" s="7">
         <v>578020</v>
       </c>
-      <c r="C54" s="9" t="n">
+      <c r="C57" s="7">
         <v>289866</v>
       </c>
-      <c r="D54" s="9" t="n">
+      <c r="D57" s="7">
         <v>288154</v>
       </c>
-      <c r="E54" s="9" t="n">
+      <c r="E57" s="7">
         <v>241999</v>
       </c>
-      <c r="F54" s="9" t="n">
+      <c r="F57" s="7">
         <v>124704</v>
       </c>
-      <c r="G54" s="9" t="n">
+      <c r="G57" s="7">
         <v>117295</v>
       </c>
-      <c r="H54" s="9" t="n">
+      <c r="H57" s="7">
         <v>336021</v>
       </c>
-      <c r="I54" s="9" t="n">
+      <c r="I57" s="7">
         <v>165162</v>
       </c>
-      <c r="J54" s="9" t="n">
+      <c r="J57" s="7">
         <v>170859</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+    <row r="58" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B58" s="7">
         <v>702055</v>
       </c>
-      <c r="C55" s="9" t="n">
+      <c r="C58" s="7">
         <v>354141</v>
       </c>
-      <c r="D55" s="9" t="n">
+      <c r="D58" s="7">
         <v>347914</v>
       </c>
-      <c r="E55" s="9" t="n">
+      <c r="E58" s="7">
         <v>379188</v>
       </c>
-      <c r="F55" s="9" t="n">
+      <c r="F58" s="7">
         <v>194578</v>
       </c>
-      <c r="G55" s="9" t="n">
+      <c r="G58" s="7">
         <v>184610</v>
       </c>
-      <c r="H55" s="9" t="n">
+      <c r="H58" s="7">
         <v>322867</v>
       </c>
-      <c r="I55" s="9" t="n">
+      <c r="I58" s="7">
         <v>159563</v>
       </c>
-      <c r="J55" s="9" t="n">
+      <c r="J58" s="7">
         <v>163304</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+    <row r="59" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="n">
+      <c r="B59" s="7">
         <v>1154418</v>
       </c>
-      <c r="C56" s="9" t="n">
+      <c r="C59" s="7">
         <v>583838</v>
       </c>
-      <c r="D56" s="9" t="n">
+      <c r="D59" s="7">
         <v>570580</v>
       </c>
-      <c r="E56" s="9" t="n">
+      <c r="E59" s="7">
         <v>590374</v>
       </c>
-      <c r="F56" s="9" t="n">
+      <c r="F59" s="7">
         <v>306274</v>
       </c>
-      <c r="G56" s="9" t="n">
+      <c r="G59" s="7">
         <v>284100</v>
       </c>
-      <c r="H56" s="9" t="n">
+      <c r="H59" s="7">
         <v>564044</v>
       </c>
-      <c r="I56" s="9" t="n">
+      <c r="I59" s="7">
         <v>277564</v>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J59" s="7">
         <v>286480</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+    <row r="60" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="n">
+      <c r="B60" s="7">
         <v>892952</v>
       </c>
-      <c r="C57" s="9" t="n">
+      <c r="C60" s="7">
         <v>450243</v>
       </c>
-      <c r="D57" s="9" t="n">
+      <c r="D60" s="7">
         <v>442709</v>
       </c>
-      <c r="E57" s="9" t="n">
+      <c r="E60" s="7">
         <v>407215</v>
       </c>
-      <c r="F57" s="9" t="n">
+      <c r="F60" s="7">
         <v>210156</v>
       </c>
-      <c r="G57" s="9" t="n">
+      <c r="G60" s="7">
         <v>197059</v>
       </c>
-      <c r="H57" s="9" t="n">
+      <c r="H60" s="7">
         <v>485737</v>
       </c>
-      <c r="I57" s="9" t="n">
+      <c r="I60" s="7">
         <v>240087</v>
       </c>
-      <c r="J57" s="9" t="n">
+      <c r="J60" s="7">
         <v>245650</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+    <row r="61" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="n">
+      <c r="B61" s="7">
         <v>557727</v>
       </c>
-      <c r="C58" s="9" t="n">
+      <c r="C61" s="7">
         <v>282459</v>
       </c>
-      <c r="D58" s="9" t="n">
+      <c r="D61" s="7">
         <v>275268</v>
       </c>
-      <c r="E58" s="9" t="n">
+      <c r="E61" s="7">
         <v>249032</v>
       </c>
-      <c r="F58" s="9" t="n">
+      <c r="F61" s="7">
         <v>129819</v>
       </c>
-      <c r="G58" s="9" t="n">
+      <c r="G61" s="7">
         <v>119213</v>
       </c>
-      <c r="H58" s="9" t="n">
+      <c r="H61" s="7">
         <v>308695</v>
       </c>
-      <c r="I58" s="9" t="n">
+      <c r="I61" s="7">
         <v>152640</v>
       </c>
-      <c r="J58" s="9" t="n">
+      <c r="J61" s="7">
         <v>156055</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+    <row r="62" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B62" s="7">
         <v>562809</v>
       </c>
-      <c r="C59" s="9" t="n">
+      <c r="C62" s="7">
         <v>294230</v>
       </c>
-      <c r="D59" s="9" t="n">
+      <c r="D62" s="7">
         <v>268579</v>
       </c>
-      <c r="E59" s="9" t="n">
+      <c r="E62" s="7">
         <v>186397</v>
       </c>
-      <c r="F59" s="9" t="n">
+      <c r="F62" s="7">
         <v>99598</v>
       </c>
-      <c r="G59" s="9" t="n">
+      <c r="G62" s="7">
         <v>86799</v>
       </c>
-      <c r="H59" s="9" t="n">
+      <c r="H62" s="7">
         <v>376412</v>
       </c>
-      <c r="I59" s="9" t="n">
+      <c r="I62" s="7">
         <v>194632</v>
       </c>
-      <c r="J59" s="9" t="n">
+      <c r="J62" s="7">
         <v>181780</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+    <row r="63" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="n">
+      <c r="B63" s="7">
         <v>376543</v>
       </c>
-      <c r="C60" s="9" t="n">
+      <c r="C63" s="7">
         <v>192327</v>
       </c>
-      <c r="D60" s="9" t="n">
+      <c r="D63" s="7">
         <v>184216</v>
       </c>
-      <c r="E60" s="9" t="n">
+      <c r="E63" s="7">
         <v>101154</v>
       </c>
-      <c r="F60" s="9" t="n">
+      <c r="F63" s="7">
         <v>53510</v>
       </c>
-      <c r="G60" s="9" t="n">
+      <c r="G63" s="7">
         <v>47644</v>
       </c>
-      <c r="H60" s="9" t="n">
+      <c r="H63" s="7">
         <v>275389</v>
       </c>
-      <c r="I60" s="9" t="n">
+      <c r="I63" s="7">
         <v>138817</v>
       </c>
-      <c r="J60" s="9" t="n">
+      <c r="J63" s="7">
         <v>136572</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+    <row r="64" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="n">
+      <c r="B64" s="7">
         <v>289509</v>
       </c>
-      <c r="C61" s="9" t="n">
+      <c r="C64" s="7">
         <v>143812</v>
       </c>
-      <c r="D61" s="9" t="n">
+      <c r="D64" s="7">
         <v>145697</v>
       </c>
-      <c r="E61" s="9" t="n">
+      <c r="E64" s="7">
         <v>112955</v>
       </c>
-      <c r="F61" s="9" t="n">
+      <c r="F64" s="7">
         <v>58720</v>
       </c>
-      <c r="G61" s="9" t="n">
+      <c r="G64" s="7">
         <v>54235</v>
       </c>
-      <c r="H61" s="9" t="n">
+      <c r="H64" s="7">
         <v>176554</v>
       </c>
-      <c r="I61" s="9" t="n">
+      <c r="I64" s="7">
         <v>85092</v>
       </c>
-      <c r="J61" s="9" t="n">
+      <c r="J64" s="7">
         <v>91462</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+    <row r="65" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="n">
+      <c r="B65" s="7">
         <v>305861</v>
       </c>
-      <c r="C62" s="9" t="n">
+      <c r="C65" s="7">
         <v>148163</v>
       </c>
-      <c r="D62" s="9" t="n">
+      <c r="D65" s="7">
         <v>157698</v>
       </c>
-      <c r="E62" s="9" t="n">
+      <c r="E65" s="7">
         <v>97286</v>
       </c>
-      <c r="F62" s="9" t="n">
+      <c r="F65" s="7">
         <v>49040</v>
       </c>
-      <c r="G62" s="9" t="n">
+      <c r="G65" s="7">
         <v>48246</v>
       </c>
-      <c r="H62" s="9" t="n">
+      <c r="H65" s="7">
         <v>208575</v>
       </c>
-      <c r="I62" s="9" t="n">
+      <c r="I65" s="7">
         <v>99123</v>
       </c>
-      <c r="J62" s="9" t="n">
+      <c r="J65" s="7">
         <v>109452</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+    <row r="66" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="9" t="n">
+      <c r="B66" s="7">
         <v>830105</v>
       </c>
-      <c r="C63" s="9" t="n">
+      <c r="C66" s="7">
         <v>408709</v>
       </c>
-      <c r="D63" s="9" t="n">
+      <c r="D66" s="7">
         <v>421396</v>
       </c>
-      <c r="E63" s="9" t="n">
+      <c r="E66" s="7">
         <v>336820</v>
       </c>
-      <c r="F63" s="9" t="n">
+      <c r="F66" s="7">
         <v>174303</v>
       </c>
-      <c r="G63" s="9" t="n">
+      <c r="G66" s="7">
         <v>162517</v>
       </c>
-      <c r="H63" s="9" t="n">
+      <c r="H66" s="7">
         <v>493285</v>
       </c>
-      <c r="I63" s="9" t="n">
+      <c r="I66" s="7">
         <v>234406</v>
       </c>
-      <c r="J63" s="9" t="n">
+      <c r="J66" s="7">
         <v>258879</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+    <row r="67" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="9" t="n">
+      <c r="B67" s="7">
         <v>348776</v>
       </c>
-      <c r="C64" s="9" t="n">
+      <c r="C67" s="7">
         <v>166481</v>
       </c>
-      <c r="D64" s="9" t="n">
+      <c r="D67" s="7">
         <v>182295</v>
       </c>
-      <c r="E64" s="9" t="n">
+      <c r="E67" s="7">
         <v>133370</v>
       </c>
-      <c r="F64" s="9" t="n">
+      <c r="F67" s="7">
         <v>67638</v>
       </c>
-      <c r="G64" s="9" t="n">
+      <c r="G67" s="7">
         <v>65732</v>
       </c>
-      <c r="H64" s="9" t="n">
+      <c r="H67" s="7">
         <v>215406</v>
       </c>
-      <c r="I64" s="9" t="n">
+      <c r="I67" s="7">
         <v>98843</v>
       </c>
-      <c r="J64" s="9" t="n">
+      <c r="J67" s="7">
         <v>116563</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+    <row r="68" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="9" t="n">
+      <c r="B68" s="7">
         <v>683061</v>
       </c>
-      <c r="C65" s="9" t="n">
+      <c r="C68" s="7">
         <v>345201</v>
       </c>
-      <c r="D65" s="9" t="n">
+      <c r="D68" s="7">
         <v>337860</v>
       </c>
-      <c r="E65" s="9" t="n">
+      <c r="E68" s="7">
         <v>297759</v>
       </c>
-      <c r="F65" s="9" t="n">
+      <c r="F68" s="7">
         <v>151949</v>
       </c>
-      <c r="G65" s="9" t="n">
+      <c r="G68" s="7">
         <v>145810</v>
       </c>
-      <c r="H65" s="9" t="n">
+      <c r="H68" s="7">
         <v>385302</v>
       </c>
-      <c r="I65" s="9" t="n">
+      <c r="I68" s="7">
         <v>193252</v>
       </c>
-      <c r="J65" s="9" t="n">
+      <c r="J68" s="7">
         <v>192050</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+    <row r="69" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B69" s="7">
         <v>1158400</v>
       </c>
-      <c r="C66" s="9" t="n">
+      <c r="C69" s="7">
         <v>562066</v>
       </c>
-      <c r="D66" s="9" t="n">
+      <c r="D69" s="7">
         <v>596334</v>
       </c>
-      <c r="E66" s="9" t="n">
+      <c r="E69" s="7">
         <v>525305</v>
       </c>
-      <c r="F66" s="9" t="n">
+      <c r="F69" s="7">
         <v>261242</v>
       </c>
-      <c r="G66" s="9" t="n">
+      <c r="G69" s="7">
         <v>264063</v>
       </c>
-      <c r="H66" s="9" t="n">
+      <c r="H69" s="7">
         <v>633095</v>
       </c>
-      <c r="I66" s="9" t="n">
+      <c r="I69" s="7">
         <v>300824</v>
       </c>
-      <c r="J66" s="9" t="n">
+      <c r="J69" s="7">
         <v>332271</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+    <row r="70" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B70" s="7">
         <v>243435</v>
       </c>
-      <c r="C67" s="9" t="n">
+      <c r="C70" s="7">
         <v>124605</v>
       </c>
-      <c r="D67" s="9" t="n">
+      <c r="D70" s="7">
         <v>118830</v>
       </c>
-      <c r="E67" s="9" t="n">
+      <c r="E70" s="7">
         <v>110139</v>
       </c>
-      <c r="F67" s="9" t="n">
+      <c r="F70" s="7">
         <v>57982</v>
       </c>
-      <c r="G67" s="9" t="n">
+      <c r="G70" s="7">
         <v>52157</v>
       </c>
-      <c r="H67" s="9" t="n">
+      <c r="H70" s="7">
         <v>133296</v>
       </c>
-      <c r="I67" s="9" t="n">
+      <c r="I70" s="7">
         <v>66623</v>
       </c>
-      <c r="J67" s="9" t="n">
+      <c r="J70" s="7">
         <v>66673</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+    <row r="71" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="9" t="n">
+      <c r="B71" s="7">
         <v>265153</v>
       </c>
-      <c r="C68" s="9" t="n">
+      <c r="C71" s="7">
         <v>126205</v>
       </c>
-      <c r="D68" s="9" t="n">
+      <c r="D71" s="7">
         <v>138948</v>
       </c>
-      <c r="E68" s="9" t="n">
+      <c r="E71" s="7">
         <v>86314</v>
       </c>
-      <c r="F68" s="9" t="n">
+      <c r="F71" s="7">
         <v>43619</v>
       </c>
-      <c r="G68" s="9" t="n">
+      <c r="G71" s="7">
         <v>42695</v>
       </c>
-      <c r="H68" s="9" t="n">
+      <c r="H71" s="7">
         <v>178839</v>
       </c>
-      <c r="I68" s="9" t="n">
+      <c r="I71" s="7">
         <v>82586</v>
       </c>
-      <c r="J68" s="9" t="n">
+      <c r="J71" s="7">
         <v>96253</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+    <row r="72" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="9" t="n">
+      <c r="B72" s="7">
         <v>767481</v>
       </c>
-      <c r="C69" s="9" t="n">
+      <c r="C72" s="7">
         <v>383155</v>
       </c>
-      <c r="D69" s="9" t="n">
+      <c r="D72" s="7">
         <v>384326</v>
       </c>
-      <c r="E69" s="9" t="n">
+      <c r="E72" s="7">
         <v>381947</v>
       </c>
-      <c r="F69" s="9" t="n">
+      <c r="F72" s="7">
         <v>201214</v>
       </c>
-      <c r="G69" s="9" t="n">
+      <c r="G72" s="7">
         <v>180733</v>
       </c>
-      <c r="H69" s="9" t="n">
+      <c r="H72" s="7">
         <v>385534</v>
       </c>
-      <c r="I69" s="9" t="n">
+      <c r="I72" s="7">
         <v>181941</v>
       </c>
-      <c r="J69" s="9" t="n">
+      <c r="J72" s="7">
         <v>203593</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+    <row r="73" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="9" t="n">
+      <c r="B73" s="7">
         <v>468842</v>
       </c>
-      <c r="C70" s="9" t="n">
+      <c r="C73" s="7">
         <v>250743</v>
       </c>
-      <c r="D70" s="9" t="n">
+      <c r="D73" s="7">
         <v>218099</v>
       </c>
-      <c r="E70" s="9" t="n">
+      <c r="E73" s="7">
         <v>258940</v>
       </c>
-      <c r="F70" s="9" t="n">
+      <c r="F73" s="7">
         <v>141092</v>
       </c>
-      <c r="G70" s="9" t="n">
+      <c r="G73" s="7">
         <v>117848</v>
       </c>
-      <c r="H70" s="9" t="n">
+      <c r="H73" s="7">
         <v>209902</v>
       </c>
-      <c r="I70" s="9" t="n">
+      <c r="I73" s="7">
         <v>109651</v>
       </c>
-      <c r="J70" s="9" t="n">
+      <c r="J73" s="7">
         <v>100251</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+    <row r="74" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="9" t="n">
+      <c r="B74" s="7">
         <v>719251</v>
       </c>
-      <c r="C71" s="9" t="n">
+      <c r="C74" s="7">
         <v>354316</v>
       </c>
-      <c r="D71" s="9" t="n">
+      <c r="D74" s="7">
         <v>364935</v>
       </c>
-      <c r="E71" s="9" t="n">
+      <c r="E74" s="7">
         <v>308304</v>
       </c>
-      <c r="F71" s="9" t="n">
+      <c r="F74" s="7">
         <v>155867</v>
       </c>
-      <c r="G71" s="9" t="n">
+      <c r="G74" s="7">
         <v>152437</v>
       </c>
-      <c r="H71" s="9" t="n">
+      <c r="H74" s="7">
         <v>410947</v>
       </c>
-      <c r="I71" s="9" t="n">
+      <c r="I74" s="7">
         <v>198449</v>
       </c>
-      <c r="J71" s="9" t="n">
+      <c r="J74" s="7">
         <v>212498</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+    <row r="75" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="9" t="n">
+      <c r="B75" s="7">
         <v>795849</v>
       </c>
-      <c r="C72" s="9" t="n">
+      <c r="C75" s="7">
         <v>386642</v>
       </c>
-      <c r="D72" s="9" t="n">
+      <c r="D75" s="7">
         <v>409207</v>
       </c>
-      <c r="E72" s="9" t="n">
+      <c r="E75" s="7">
         <v>303612</v>
       </c>
-      <c r="F72" s="9" t="n">
+      <c r="F75" s="7">
         <v>157714</v>
       </c>
-      <c r="G72" s="9" t="n">
+      <c r="G75" s="7">
         <v>145898</v>
       </c>
-      <c r="H72" s="9" t="n">
+      <c r="H75" s="7">
         <v>492237</v>
       </c>
-      <c r="I72" s="9" t="n">
+      <c r="I75" s="7">
         <v>228928</v>
       </c>
-      <c r="J72" s="9" t="n">
+      <c r="J75" s="7">
         <v>263309</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+    <row r="76" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="9" t="n">
+      <c r="B76" s="7">
         <v>133143</v>
       </c>
-      <c r="C73" s="9" t="n">
+      <c r="C76" s="7">
         <v>67462</v>
       </c>
-      <c r="D73" s="9" t="n">
+      <c r="D76" s="7">
         <v>65681</v>
       </c>
-      <c r="E73" s="9" t="n">
+      <c r="E76" s="7">
         <v>50799</v>
       </c>
-      <c r="F73" s="9" t="n">
+      <c r="F76" s="7">
         <v>27871</v>
       </c>
-      <c r="G73" s="9" t="n">
+      <c r="G76" s="7">
         <v>22928</v>
       </c>
-      <c r="H73" s="9" t="n">
+      <c r="H76" s="7">
         <v>82344</v>
       </c>
-      <c r="I73" s="9" t="n">
+      <c r="I76" s="7">
         <v>39591</v>
       </c>
-      <c r="J73" s="9" t="n">
+      <c r="J76" s="7">
         <v>42753</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+    <row r="77" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="9" t="n">
+      <c r="B77" s="7">
         <v>1001455</v>
       </c>
-      <c r="C74" s="9" t="n">
+      <c r="C77" s="7">
         <v>515980</v>
       </c>
-      <c r="D74" s="9" t="n">
+      <c r="D77" s="7">
         <v>485475</v>
       </c>
-      <c r="E74" s="9" t="n">
+      <c r="E77" s="7">
         <v>551124</v>
       </c>
-      <c r="F74" s="9" t="n">
+      <c r="F77" s="7">
         <v>289900</v>
       </c>
-      <c r="G74" s="9" t="n">
+      <c r="G77" s="7">
         <v>261224</v>
       </c>
-      <c r="H74" s="9" t="n">
+      <c r="H77" s="7">
         <v>450331</v>
       </c>
-      <c r="I74" s="9" t="n">
+      <c r="I77" s="7">
         <v>226080</v>
       </c>
-      <c r="J74" s="9" t="n">
+      <c r="J77" s="7">
         <v>224251</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+    <row r="78" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="9" t="n">
+      <c r="B78" s="7">
         <v>290283</v>
       </c>
-      <c r="C75" s="9" t="n">
+      <c r="C78" s="7">
         <v>144224</v>
       </c>
-      <c r="D75" s="9" t="n">
+      <c r="D78" s="7">
         <v>146059</v>
       </c>
-      <c r="E75" s="9" t="n">
+      <c r="E78" s="7">
         <v>146809</v>
       </c>
-      <c r="F75" s="9" t="n">
+      <c r="F78" s="7">
         <v>75112</v>
       </c>
-      <c r="G75" s="9" t="n">
+      <c r="G78" s="7">
         <v>71697</v>
       </c>
-      <c r="H75" s="9" t="n">
+      <c r="H78" s="7">
         <v>143474</v>
       </c>
-      <c r="I75" s="9" t="n">
+      <c r="I78" s="7">
         <v>69112</v>
       </c>
-      <c r="J75" s="9" t="n">
+      <c r="J78" s="7">
         <v>74362</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+    <row r="79" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="9" t="n">
+      <c r="B79" s="7">
         <v>637433</v>
       </c>
-      <c r="C76" s="9" t="n">
+      <c r="C79" s="7">
         <v>324624</v>
       </c>
-      <c r="D76" s="9" t="n">
+      <c r="D79" s="7">
         <v>312809</v>
       </c>
-      <c r="E76" s="9" t="n">
+      <c r="E79" s="7">
         <v>258967</v>
       </c>
-      <c r="F76" s="9" t="n">
+      <c r="F79" s="7">
         <v>138166</v>
       </c>
-      <c r="G76" s="9" t="n">
+      <c r="G79" s="7">
         <v>120801</v>
       </c>
-      <c r="H76" s="9" t="n">
+      <c r="H79" s="7">
         <v>378466</v>
       </c>
-      <c r="I76" s="9" t="n">
+      <c r="I79" s="7">
         <v>186458</v>
       </c>
-      <c r="J76" s="9" t="n">
+      <c r="J79" s="7">
         <v>192008</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+    <row r="80" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="9" t="n">
+      <c r="B80" s="7">
         <v>579150</v>
       </c>
-      <c r="C77" s="9" t="n">
+      <c r="C80" s="7">
         <v>282399</v>
       </c>
-      <c r="D77" s="9" t="n">
+      <c r="D80" s="7">
         <v>296751</v>
       </c>
-      <c r="E77" s="9" t="n">
+      <c r="E80" s="7">
         <v>208183</v>
       </c>
-      <c r="F77" s="9" t="n">
+      <c r="F80" s="7">
         <v>105648</v>
       </c>
-      <c r="G77" s="9" t="n">
+      <c r="G80" s="7">
         <v>102535</v>
       </c>
-      <c r="H77" s="9" t="n">
+      <c r="H80" s="7">
         <v>370967</v>
       </c>
-      <c r="I77" s="9" t="n">
+      <c r="I80" s="7">
         <v>176751</v>
       </c>
-      <c r="J77" s="9" t="n">
+      <c r="J80" s="7">
         <v>194216</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+    <row r="81" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="9" t="n">
+      <c r="B81" s="7">
         <v>1073560</v>
       </c>
-      <c r="C78" s="9" t="n">
+      <c r="C81" s="7">
         <v>526041</v>
       </c>
-      <c r="D78" s="9" t="n">
+      <c r="D81" s="7">
         <v>547519</v>
       </c>
-      <c r="E78" s="9" t="n">
+      <c r="E81" s="7">
         <v>411617</v>
       </c>
-      <c r="F78" s="9" t="n">
+      <c r="F81" s="7">
         <v>211691</v>
       </c>
-      <c r="G78" s="9" t="n">
+      <c r="G81" s="7">
         <v>199926</v>
       </c>
-      <c r="H78" s="9" t="n">
+      <c r="H81" s="7">
         <v>661943</v>
       </c>
-      <c r="I78" s="9" t="n">
+      <c r="I81" s="7">
         <v>314350</v>
       </c>
-      <c r="J78" s="9" t="n">
+      <c r="J81" s="7">
         <v>347593</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+    <row r="82" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="9" t="n">
+      <c r="B82" s="7">
         <v>326399</v>
       </c>
-      <c r="C79" s="9" t="n">
+      <c r="C82" s="7">
         <v>156546</v>
       </c>
-      <c r="D79" s="9" t="n">
+      <c r="D82" s="7">
         <v>169853</v>
       </c>
-      <c r="E79" s="9" t="n">
+      <c r="E82" s="7">
         <v>144217</v>
       </c>
-      <c r="F79" s="9" t="n">
+      <c r="F82" s="7">
         <v>70615</v>
       </c>
-      <c r="G79" s="9" t="n">
+      <c r="G82" s="7">
         <v>73602</v>
       </c>
-      <c r="H79" s="9" t="n">
+      <c r="H82" s="7">
         <v>182182</v>
       </c>
-      <c r="I79" s="9" t="n">
+      <c r="I82" s="7">
         <v>85931</v>
       </c>
-      <c r="J79" s="9" t="n">
+      <c r="J82" s="7">
         <v>96251</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+    <row r="83" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="9" t="n">
+      <c r="B83" s="7">
         <v>107330</v>
       </c>
-      <c r="C80" s="9" t="n">
+      <c r="C83" s="7">
         <v>52607</v>
       </c>
-      <c r="D80" s="9" t="n">
+      <c r="D83" s="7">
         <v>54723</v>
       </c>
-      <c r="E80" s="9" t="n">
+      <c r="E83" s="7">
         <v>41295</v>
       </c>
-      <c r="F80" s="9" t="n">
+      <c r="F83" s="7">
         <v>22204</v>
       </c>
-      <c r="G80" s="9" t="n">
+      <c r="G83" s="7">
         <v>19091</v>
       </c>
-      <c r="H80" s="9" t="n">
+      <c r="H83" s="7">
         <v>66035</v>
       </c>
-      <c r="I80" s="9" t="n">
+      <c r="I83" s="7">
         <v>30403</v>
       </c>
-      <c r="J80" s="9" t="n">
+      <c r="J83" s="7">
         <v>35632</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+    <row r="84" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="9" t="n">
+      <c r="B84" s="7">
         <v>217536</v>
       </c>
-      <c r="C81" s="9" t="n">
+      <c r="C84" s="7">
         <v>106762</v>
       </c>
-      <c r="D81" s="9" t="n">
+      <c r="D84" s="7">
         <v>110774</v>
       </c>
-      <c r="E81" s="9" t="n">
+      <c r="E84" s="7">
         <v>106051</v>
       </c>
-      <c r="F81" s="9" t="n">
+      <c r="F84" s="7">
         <v>52910</v>
       </c>
-      <c r="G81" s="9" t="n">
+      <c r="G84" s="7">
         <v>53141</v>
       </c>
-      <c r="H81" s="9" t="n">
+      <c r="H84" s="7">
         <v>111485</v>
       </c>
-      <c r="I81" s="9" t="n">
+      <c r="I84" s="7">
         <v>53852</v>
       </c>
-      <c r="J81" s="9" t="n">
+      <c r="J84" s="7">
         <v>57633</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+    <row r="85" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="9" t="n">
+      <c r="B85" s="7">
         <v>349396</v>
       </c>
-      <c r="C82" s="9" t="n">
+      <c r="C85" s="7">
         <v>177789</v>
       </c>
-      <c r="D82" s="9" t="n">
+      <c r="D85" s="7">
         <v>171607</v>
       </c>
-      <c r="E82" s="9" t="n">
+      <c r="E85" s="7">
         <v>243378</v>
       </c>
-      <c r="F82" s="9" t="n">
+      <c r="F85" s="7">
         <v>125193</v>
       </c>
-      <c r="G82" s="9" t="n">
+      <c r="G85" s="7">
         <v>118185</v>
       </c>
-      <c r="H82" s="9" t="n">
+      <c r="H85" s="7">
         <v>106018</v>
       </c>
-      <c r="I82" s="9" t="n">
+      <c r="I85" s="7">
         <v>52596</v>
       </c>
-      <c r="J82" s="9" t="n">
+      <c r="J85" s="7">
         <v>53422</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+    <row r="86" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="9" t="n">
+      <c r="B86" s="7">
         <v>344669</v>
       </c>
-      <c r="C83" s="9" t="n">
+      <c r="C86" s="7">
         <v>176547</v>
       </c>
-      <c r="D83" s="9" t="n">
+      <c r="D86" s="7">
         <v>168122</v>
       </c>
-      <c r="E83" s="9" t="n">
+      <c r="E86" s="7">
         <v>193621</v>
       </c>
-      <c r="F83" s="9" t="n">
+      <c r="F86" s="7">
         <v>101000</v>
       </c>
-      <c r="G83" s="9" t="n">
+      <c r="G86" s="7">
         <v>92621</v>
       </c>
-      <c r="H83" s="9" t="n">
+      <c r="H86" s="7">
         <v>151048</v>
       </c>
-      <c r="I83" s="9" t="n">
+      <c r="I86" s="7">
         <v>75547</v>
       </c>
-      <c r="J83" s="9" t="n">
+      <c r="J86" s="7">
         <v>75501</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+    <row r="87" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="9" t="n">
+      <c r="B87" s="7">
         <v>262006</v>
       </c>
-      <c r="C84" s="9" t="n">
+      <c r="C87" s="7">
         <v>139534</v>
       </c>
-      <c r="D84" s="9" t="n">
+      <c r="D87" s="7">
         <v>122472</v>
       </c>
-      <c r="E84" s="9" t="n">
+      <c r="E87" s="7">
         <v>125264</v>
       </c>
-      <c r="F84" s="9" t="n">
+      <c r="F87" s="7">
         <v>67466</v>
       </c>
-      <c r="G84" s="9" t="n">
+      <c r="G87" s="7">
         <v>57798</v>
       </c>
-      <c r="H84" s="9" t="n">
+      <c r="H87" s="7">
         <v>136742</v>
       </c>
-      <c r="I84" s="9" t="n">
+      <c r="I87" s="7">
         <v>72068</v>
       </c>
-      <c r="J84" s="9" t="n">
+      <c r="J87" s="7">
         <v>64674</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="s">
+    <row r="88" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11" t="s">
+    <row r="91" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3018,12 +3293,7 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/years/1990.xlsx
+++ b/years/1990.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="300" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="bNIxLyjM" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,6 +44,9 @@
     <t>Kadın</t>
   </si>
   <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
     <t>Adana</t>
   </si>
   <si>
@@ -261,9 +264,6 @@
   </si>
   <si>
     <t>Şırnak</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
   </si>
   <si>
     <t>Şehir : İl ve ilçe merkezleri sınırları içindeki nüfustur.</t>
@@ -516,13 +516,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:J9"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,7 +529,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="2" style="0" width="8.71255060728745"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.53441295546559"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -630,6 +629,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="8" t="n">
         <v>56473035</v>
       </c>
@@ -660,7 +662,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>1934907</v>
@@ -692,7 +694,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>513131</v>
@@ -724,7 +726,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>739223</v>
@@ -756,7 +758,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>437093</v>
@@ -788,7 +790,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>357191</v>
@@ -820,7 +822,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>3236626</v>
@@ -852,7 +854,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>1132211</v>
@@ -884,7 +886,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>212833</v>
@@ -916,7 +918,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>824816</v>
@@ -948,7 +950,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>973314</v>
@@ -980,7 +982,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>175526</v>
@@ -1012,7 +1014,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>250966</v>
@@ -1044,7 +1046,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>330115</v>
@@ -1076,7 +1078,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>536869</v>
@@ -1108,7 +1110,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="9" t="n">
         <v>254899</v>
@@ -1140,7 +1142,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="9" t="n">
         <v>1603137</v>
@@ -1172,7 +1174,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="9" t="n">
         <v>432263</v>
@@ -1204,7 +1206,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="9" t="n">
         <v>279129</v>
@@ -1236,7 +1238,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="9" t="n">
         <v>609863</v>
@@ -1268,7 +1270,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="9" t="n">
         <v>750882</v>
@@ -1300,7 +1302,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="9" t="n">
         <v>1094996</v>
@@ -1332,7 +1334,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="9" t="n">
         <v>404599</v>
@@ -1364,7 +1366,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="9" t="n">
         <v>498225</v>
@@ -1396,7 +1398,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="9" t="n">
         <v>299251</v>
@@ -1428,7 +1430,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="9" t="n">
         <v>848201</v>
@@ -1460,7 +1462,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="9" t="n">
         <v>641057</v>
@@ -1492,7 +1494,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>1140594</v>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>499087</v>
@@ -1556,7 +1558,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="9" t="n">
         <v>169375</v>
@@ -1588,7 +1590,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="9" t="n">
         <v>172479</v>
@@ -1620,7 +1622,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9" t="n">
         <v>1109754</v>
@@ -1652,7 +1654,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9" t="n">
         <v>434771</v>
@@ -1684,7 +1686,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="9" t="n">
         <v>1266995</v>
@@ -1716,7 +1718,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9" t="n">
         <v>7309190</v>
@@ -1748,7 +1750,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9" t="n">
         <v>2694770</v>
@@ -1780,7 +1782,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="n">
         <v>662155</v>
@@ -1812,7 +1814,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9" t="n">
         <v>423611</v>
@@ -1844,7 +1846,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="9" t="n">
         <v>943484</v>
@@ -1876,7 +1878,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="9" t="n">
         <v>309512</v>
@@ -1908,7 +1910,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="9" t="n">
         <v>256862</v>
@@ -1940,7 +1942,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="9" t="n">
         <v>936163</v>
@@ -1972,7 +1974,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="9" t="n">
         <v>1750303</v>
@@ -2004,7 +2006,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="9" t="n">
         <v>578020</v>
@@ -2036,7 +2038,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="9" t="n">
         <v>702055</v>
@@ -2068,7 +2070,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="9" t="n">
         <v>1154418</v>
@@ -2100,7 +2102,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="9" t="n">
         <v>892952</v>
@@ -2132,7 +2134,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="9" t="n">
         <v>557727</v>
@@ -2164,7 +2166,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="9" t="n">
         <v>562809</v>
@@ -2196,7 +2198,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="9" t="n">
         <v>376543</v>
@@ -2228,7 +2230,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="9" t="n">
         <v>289509</v>
@@ -2260,7 +2262,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="9" t="n">
         <v>305861</v>
@@ -2292,7 +2294,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="9" t="n">
         <v>830105</v>
@@ -2324,7 +2326,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="9" t="n">
         <v>348776</v>
@@ -2356,7 +2358,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9" t="n">
         <v>683061</v>
@@ -2388,7 +2390,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="9" t="n">
         <v>1158400</v>
@@ -2420,7 +2422,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="9" t="n">
         <v>243435</v>
@@ -2452,7 +2454,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="9" t="n">
         <v>265153</v>
@@ -2484,7 +2486,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="9" t="n">
         <v>767481</v>
@@ -2516,7 +2518,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>468842</v>
@@ -2548,7 +2550,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="9" t="n">
         <v>719251</v>
@@ -2580,7 +2582,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="9" t="n">
         <v>795849</v>
@@ -2612,7 +2614,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="9" t="n">
         <v>133143</v>
@@ -2644,7 +2646,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="9" t="n">
         <v>1001455</v>
@@ -2676,7 +2678,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="9" t="n">
         <v>290283</v>
@@ -2708,7 +2710,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="9" t="n">
         <v>637433</v>
@@ -2740,7 +2742,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="9" t="n">
         <v>579150</v>
@@ -2772,7 +2774,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="9" t="n">
         <v>1073560</v>
@@ -2804,7 +2806,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="9" t="n">
         <v>326399</v>
@@ -2836,7 +2838,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="9" t="n">
         <v>107330</v>
@@ -2868,7 +2870,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="9" t="n">
         <v>217536</v>
@@ -2900,7 +2902,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="9" t="n">
         <v>349396</v>
@@ -2932,7 +2934,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="9" t="n">
         <v>344669</v>
@@ -2964,7 +2966,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="9" t="n">
         <v>262006</v>
@@ -2997,11 +2999,7 @@
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>83</v>

--- a/years/1990.xlsx
+++ b/years/1990.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="bNIxLyjM" sheetId="1" r:id="rId1"/>
+    <sheet name="bNIxLyjM" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -26,16 +26,16 @@
     <t>İllere göre şehir ve köy nüfusları</t>
   </si>
   <si>
+    <t>Toplam</t>
+  </si>
+  <si>
+    <t>Şehir</t>
+  </si>
+  <si>
+    <t>Köy</t>
+  </si>
+  <si>
     <t>İller</t>
-  </si>
-  <si>
-    <t>Toplam</t>
-  </si>
-  <si>
-    <t>Şehir</t>
-  </si>
-  <si>
-    <t>Köy</t>
   </si>
   <si>
     <t>Erkek</t>
@@ -275,8 +275,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -285,7 +289,22 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -293,7 +312,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -301,7 +320,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -309,7 +328,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF7F0000"/>
       <name val="Arial"/>
@@ -333,68 +352,104 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -453,2835 +508,2536 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87:J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125"/>
-    <col min="2" max="9" width="8.7109375"/>
-    <col min="10" max="10" width="6.5703125"/>
-    <col min="11" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8" t="n">
         <v>56473035</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8" t="n">
         <v>28607047</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8" t="n">
         <v>27865988</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8" t="n">
         <v>33326351</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8" t="n">
         <v>17247553</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8" t="n">
         <v>16078798</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8" t="n">
         <v>23146684</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8" t="n">
         <v>11359494</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8" t="n">
         <v>11787190</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9" t="n">
         <v>1934907</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9" t="n">
         <v>973878</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9" t="n">
         <v>961029</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9" t="n">
         <v>1350339</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9" t="n">
         <v>684221</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="9" t="n">
         <v>666118</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="9" t="n">
         <v>584568</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="9" t="n">
         <v>289657</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9" t="n">
         <v>294911</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9" t="n">
         <v>513131</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9" t="n">
         <v>256699</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9" t="n">
         <v>256432</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9" t="n">
         <v>219304</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9" t="n">
         <v>113142</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="9" t="n">
         <v>106162</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9" t="n">
         <v>293827</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9" t="n">
         <v>143557</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9" t="n">
         <v>150270</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9" t="n">
         <v>739223</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9" t="n">
         <v>368950</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9" t="n">
         <v>370273</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9" t="n">
         <v>306209</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9" t="n">
         <v>156784</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9" t="n">
         <v>149425</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="9" t="n">
         <v>433014</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="9" t="n">
         <v>212166</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9" t="n">
         <v>220848</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9" t="n">
         <v>437093</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9" t="n">
         <v>221327</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9" t="n">
         <v>215766</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="9" t="n">
         <v>158758</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9" t="n">
         <v>86687</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="9" t="n">
         <v>72071</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="9" t="n">
         <v>278335</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="9" t="n">
         <v>134640</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="9" t="n">
         <v>143695</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9" t="n">
         <v>357191</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9" t="n">
         <v>179895</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9" t="n">
         <v>177296</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9" t="n">
         <v>162544</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="9" t="n">
         <v>84486</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="9" t="n">
         <v>78058</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="9" t="n">
         <v>194647</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="9" t="n">
         <v>95409</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="9" t="n">
         <v>99238</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9" t="n">
         <v>3236626</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9" t="n">
         <v>1658276</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9" t="n">
         <v>1578350</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9" t="n">
         <v>2836719</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="9" t="n">
         <v>1460015</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9" t="n">
         <v>1376704</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9" t="n">
         <v>399907</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="9" t="n">
         <v>198261</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="9" t="n">
         <v>201646</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9" t="n">
         <v>1132211</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9" t="n">
         <v>588656</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9" t="n">
         <v>543555</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="9" t="n">
         <v>602194</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="9" t="n">
         <v>319719</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="9" t="n">
         <v>282475</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="9" t="n">
         <v>530017</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="9" t="n">
         <v>268937</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="9" t="n">
         <v>261080</v>
       </c>
     </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9" t="n">
         <v>212833</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9" t="n">
         <v>104093</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9" t="n">
         <v>108740</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="9" t="n">
         <v>66097</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="9" t="n">
         <v>35324</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="9" t="n">
         <v>30773</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9" t="n">
         <v>146736</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9" t="n">
         <v>68769</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9" t="n">
         <v>77967</v>
       </c>
     </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9" t="n">
         <v>824816</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9" t="n">
         <v>416304</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9" t="n">
         <v>408512</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="9" t="n">
         <v>384711</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="9" t="n">
         <v>197623</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="9" t="n">
         <v>187088</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="9" t="n">
         <v>440105</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="9" t="n">
         <v>218681</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="9" t="n">
         <v>221424</v>
       </c>
     </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9" t="n">
         <v>973314</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9" t="n">
         <v>496661</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9" t="n">
         <v>476653</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="9" t="n">
         <v>468758</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="9" t="n">
         <v>242346</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="9" t="n">
         <v>226412</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="9" t="n">
         <v>504556</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="9" t="n">
         <v>254315</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="9" t="n">
         <v>250241</v>
       </c>
     </row>
-    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9" t="n">
         <v>175526</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9" t="n">
         <v>90978</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9" t="n">
         <v>84548</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="9" t="n">
         <v>90373</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="9" t="n">
         <v>49092</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="9" t="n">
         <v>41281</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="9" t="n">
         <v>85153</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="9" t="n">
         <v>41886</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="9" t="n">
         <v>43267</v>
       </c>
     </row>
-    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9" t="n">
         <v>250966</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9" t="n">
         <v>124710</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9" t="n">
         <v>126256</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="9" t="n">
         <v>86648</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="9" t="n">
         <v>45999</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="9" t="n">
         <v>40649</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="9" t="n">
         <v>164318</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="9" t="n">
         <v>78711</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="9" t="n">
         <v>85607</v>
       </c>
     </row>
-    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9" t="n">
         <v>330115</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9" t="n">
         <v>170982</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9" t="n">
         <v>159133</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="9" t="n">
         <v>142947</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="9" t="n">
         <v>78164</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="9" t="n">
         <v>64783</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="9" t="n">
         <v>187168</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="9" t="n">
         <v>92818</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="9" t="n">
         <v>94350</v>
       </c>
     </row>
-    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9" t="n">
         <v>536869</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9" t="n">
         <v>268870</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9" t="n">
         <v>267999</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="9" t="n">
         <v>203122</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="9" t="n">
         <v>107499</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="9" t="n">
         <v>95623</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="9" t="n">
         <v>333747</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="9" t="n">
         <v>161371</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="9" t="n">
         <v>172376</v>
       </c>
     </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9" t="n">
         <v>254899</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9" t="n">
         <v>129742</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9" t="n">
         <v>125157</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="9" t="n">
         <v>129112</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="9" t="n">
         <v>69094</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9" t="n">
         <v>60018</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="9" t="n">
         <v>125787</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="9" t="n">
         <v>60648</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="9" t="n">
         <v>65139</v>
       </c>
     </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9" t="n">
         <v>1603137</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9" t="n">
         <v>810923</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9" t="n">
         <v>792214</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="9" t="n">
         <v>1157805</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="9" t="n">
         <v>588468</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="9" t="n">
         <v>569337</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="9" t="n">
         <v>445332</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9" t="n">
         <v>222455</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="9" t="n">
         <v>222877</v>
       </c>
     </row>
-    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9" t="n">
         <v>432263</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9" t="n">
         <v>225099</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9" t="n">
         <v>207164</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="9" t="n">
         <v>168529</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="9" t="n">
         <v>91612</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="9" t="n">
         <v>76917</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="9" t="n">
         <v>263734</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="9" t="n">
         <v>133487</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="9" t="n">
         <v>130247</v>
       </c>
     </row>
-    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9" t="n">
         <v>279129</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9" t="n">
         <v>139025</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9" t="n">
         <v>140104</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="9" t="n">
         <v>113855</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="9" t="n">
         <v>60885</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="9" t="n">
         <v>52970</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="9" t="n">
         <v>165274</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="9" t="n">
         <v>78140</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="9" t="n">
         <v>87134</v>
       </c>
     </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9" t="n">
         <v>609863</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="9" t="n">
         <v>294082</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9" t="n">
         <v>315781</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="9" t="n">
         <v>253804</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="9" t="n">
         <v>127863</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="9" t="n">
         <v>125941</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="9" t="n">
         <v>356059</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="9" t="n">
         <v>166219</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="9" t="n">
         <v>189840</v>
       </c>
     </row>
-    <row r="34" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9" t="n">
         <v>750882</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9" t="n">
         <v>379129</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9" t="n">
         <v>371753</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="9" t="n">
         <v>337793</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="9" t="n">
         <v>175039</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="9" t="n">
         <v>162754</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="9" t="n">
         <v>413089</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="9" t="n">
         <v>204090</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="9" t="n">
         <v>208999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9" t="n">
         <v>1094996</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9" t="n">
         <v>559446</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9" t="n">
         <v>535550</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="9" t="n">
         <v>600640</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="9" t="n">
         <v>314180</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="9" t="n">
         <v>286460</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="9" t="n">
         <v>494356</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="9" t="n">
         <v>245266</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="9" t="n">
         <v>249090</v>
       </c>
     </row>
-    <row r="36" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9" t="n">
         <v>404599</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9" t="n">
         <v>213966</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9" t="n">
         <v>190633</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9" t="n">
         <v>210421</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="9" t="n">
         <v>115537</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="9" t="n">
         <v>94884</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="9" t="n">
         <v>194178</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="9" t="n">
         <v>98429</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="9" t="n">
         <v>95749</v>
       </c>
     </row>
-    <row r="37" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9" t="n">
         <v>498225</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9" t="n">
         <v>247321</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9" t="n">
         <v>250904</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="9" t="n">
         <v>272790</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="9" t="n">
         <v>139006</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="9" t="n">
         <v>133784</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="9" t="n">
         <v>225435</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="9" t="n">
         <v>108315</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="9" t="n">
         <v>117120</v>
       </c>
     </row>
-    <row r="38" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="9" t="n">
         <v>299251</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="9" t="n">
         <v>156387</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9" t="n">
         <v>142864</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="9" t="n">
         <v>144144</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="9" t="n">
         <v>81121</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9" t="n">
         <v>63023</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="9" t="n">
         <v>155107</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="9" t="n">
         <v>75266</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="9" t="n">
         <v>79841</v>
       </c>
     </row>
-    <row r="39" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9" t="n">
         <v>848201</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="9" t="n">
         <v>427701</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="9" t="n">
         <v>420500</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="9" t="n">
         <v>400348</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="9" t="n">
         <v>213248</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="9" t="n">
         <v>187100</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="9" t="n">
         <v>447853</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="9" t="n">
         <v>214453</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="9" t="n">
         <v>233400</v>
       </c>
     </row>
-    <row r="40" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9" t="n">
         <v>641057</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="9" t="n">
         <v>321928</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9" t="n">
         <v>319129</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="9" t="n">
         <v>477436</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="9" t="n">
         <v>240681</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="9" t="n">
         <v>236755</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="9" t="n">
         <v>163621</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="9" t="n">
         <v>81247</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="9" t="n">
         <v>82374</v>
       </c>
     </row>
-    <row r="41" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="9" t="n">
         <v>1140594</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="9" t="n">
         <v>577881</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="9" t="n">
         <v>562713</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="9" t="n">
         <v>821127</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="9" t="n">
         <v>422539</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="9" t="n">
         <v>398588</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="9" t="n">
         <v>319467</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="9" t="n">
         <v>155342</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="9" t="n">
         <v>164125</v>
       </c>
     </row>
-    <row r="42" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="9" t="n">
         <v>499087</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="9" t="n">
         <v>246597</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9" t="n">
         <v>252490</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="9" t="n">
         <v>219114</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="9" t="n">
         <v>115381</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="9" t="n">
         <v>103733</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="9" t="n">
         <v>279973</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="9" t="n">
         <v>131216</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="9" t="n">
         <v>148757</v>
       </c>
     </row>
-    <row r="43" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="9" t="n">
         <v>169375</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="9" t="n">
         <v>81621</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="9" t="n">
         <v>87754</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="9" t="n">
         <v>58996</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="9" t="n">
         <v>31921</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="9" t="n">
         <v>27075</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="9" t="n">
         <v>110379</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="9" t="n">
         <v>49700</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="9" t="n">
         <v>60679</v>
       </c>
     </row>
-    <row r="44" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="9" t="n">
         <v>172479</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="9" t="n">
         <v>93913</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="9" t="n">
         <v>78566</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="9" t="n">
         <v>71099</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="9" t="n">
         <v>42819</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="9" t="n">
         <v>28280</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="9" t="n">
         <v>101380</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="9" t="n">
         <v>51094</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="9" t="n">
         <v>50286</v>
       </c>
     </row>
-    <row r="45" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9" t="n">
         <v>1109754</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="9" t="n">
         <v>556548</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="9" t="n">
         <v>553206</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="9" t="n">
         <v>531707</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="9" t="n">
         <v>268762</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="9" t="n">
         <v>262945</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="9" t="n">
         <v>578047</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="9" t="n">
         <v>287786</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="9" t="n">
         <v>290261</v>
       </c>
     </row>
-    <row r="46" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="9" t="n">
         <v>434771</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="9" t="n">
         <v>224403</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="9" t="n">
         <v>210368</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="9" t="n">
         <v>229574</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="9" t="n">
         <v>125176</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="9" t="n">
         <v>104398</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="9" t="n">
         <v>205197</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="9" t="n">
         <v>99227</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="9" t="n">
         <v>105970</v>
       </c>
     </row>
-    <row r="47" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="9" t="n">
         <v>1266995</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="9" t="n">
         <v>645244</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="9" t="n">
         <v>621751</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="9" t="n">
         <v>787284</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="9" t="n">
         <v>402880</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9" t="n">
         <v>384404</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="9" t="n">
         <v>479711</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="9" t="n">
         <v>242364</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="9" t="n">
         <v>237347</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="9" t="n">
         <v>7309190</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="9" t="n">
         <v>3798761</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="9" t="n">
         <v>3510429</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="9" t="n">
         <v>6753929</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="9" t="n">
         <v>3494553</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="9" t="n">
         <v>3259376</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="9" t="n">
         <v>555261</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="9" t="n">
         <v>304208</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="9" t="n">
         <v>251053</v>
       </c>
     </row>
-    <row r="49" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="9" t="n">
         <v>2694770</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="9" t="n">
         <v>1379778</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="9" t="n">
         <v>1314992</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="9" t="n">
         <v>2134816</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="9" t="n">
         <v>1096597</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="9" t="n">
         <v>1038219</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="9" t="n">
         <v>559954</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="9" t="n">
         <v>283181</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="9" t="n">
         <v>276773</v>
       </c>
     </row>
-    <row r="50" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="9" t="n">
         <v>662155</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="9" t="n">
         <v>334065</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="9" t="n">
         <v>328090</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="9" t="n">
         <v>209463</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="9" t="n">
         <v>116126</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="9" t="n">
         <v>93337</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="9" t="n">
         <v>452692</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="9" t="n">
         <v>217939</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="9" t="n">
         <v>234753</v>
       </c>
     </row>
-    <row r="51" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="9" t="n">
         <v>423611</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="9" t="n">
         <v>202583</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="9" t="n">
         <v>221028</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="9" t="n">
         <v>148710</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="9" t="n">
         <v>76447</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="9" t="n">
         <v>72263</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="9" t="n">
         <v>274901</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="9" t="n">
         <v>126136</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="9" t="n">
         <v>148765</v>
       </c>
     </row>
-    <row r="52" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="9" t="n">
         <v>943484</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="9" t="n">
         <v>471874</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="9" t="n">
         <v>471610</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="9" t="n">
         <v>604072</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="9" t="n">
         <v>308228</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="9" t="n">
         <v>295844</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="9" t="n">
         <v>339412</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="9" t="n">
         <v>163646</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="9" t="n">
         <v>175766</v>
       </c>
     </row>
-    <row r="53" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="9" t="n">
         <v>309512</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="9" t="n">
         <v>166073</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="9" t="n">
         <v>143439</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="9" t="n">
         <v>149532</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="9" t="n">
         <v>83619</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="9" t="n">
         <v>65913</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="9" t="n">
         <v>159980</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="9" t="n">
         <v>82454</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="9" t="n">
         <v>77526</v>
       </c>
     </row>
-    <row r="54" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="9" t="n">
         <v>256862</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="9" t="n">
         <v>124639</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="9" t="n">
         <v>132223</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="9" t="n">
         <v>126406</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="9" t="n">
         <v>63396</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="9" t="n">
         <v>63010</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="9" t="n">
         <v>130456</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="9" t="n">
         <v>61243</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="9" t="n">
         <v>69213</v>
       </c>
     </row>
-    <row r="55" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="9" t="n">
         <v>936163</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="9" t="n">
         <v>486436</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="9" t="n">
         <v>449727</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="9" t="n">
         <v>582559</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="9" t="n">
         <v>303690</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="9" t="n">
         <v>278869</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="9" t="n">
         <v>353604</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="9" t="n">
         <v>182746</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="9" t="n">
         <v>170858</v>
       </c>
     </row>
-    <row r="56" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="9" t="n">
         <v>1750303</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="9" t="n">
         <v>873886</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="9" t="n">
         <v>876417</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="9" t="n">
         <v>963128</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="9" t="n">
         <v>490789</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="9" t="n">
         <v>472339</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="9" t="n">
         <v>787175</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="9" t="n">
         <v>383097</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="9" t="n">
         <v>404078</v>
       </c>
     </row>
-    <row r="57" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="9" t="n">
         <v>578020</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="9" t="n">
         <v>289866</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="9" t="n">
         <v>288154</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="9" t="n">
         <v>241999</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="9" t="n">
         <v>124704</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="9" t="n">
         <v>117295</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="9" t="n">
         <v>336021</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="9" t="n">
         <v>165162</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="9" t="n">
         <v>170859</v>
       </c>
     </row>
-    <row r="58" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="9" t="n">
         <v>702055</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="9" t="n">
         <v>354141</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="9" t="n">
         <v>347914</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="9" t="n">
         <v>379188</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="9" t="n">
         <v>194578</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="9" t="n">
         <v>184610</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="9" t="n">
         <v>322867</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="9" t="n">
         <v>159563</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="9" t="n">
         <v>163304</v>
       </c>
     </row>
-    <row r="59" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="9" t="n">
         <v>1154418</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="9" t="n">
         <v>583838</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="9" t="n">
         <v>570580</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="9" t="n">
         <v>590374</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="9" t="n">
         <v>306274</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="9" t="n">
         <v>284100</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="9" t="n">
         <v>564044</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="9" t="n">
         <v>277564</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="9" t="n">
         <v>286480</v>
       </c>
     </row>
-    <row r="60" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="9" t="n">
         <v>892952</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="9" t="n">
         <v>450243</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="9" t="n">
         <v>442709</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="9" t="n">
         <v>407215</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="9" t="n">
         <v>210156</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="9" t="n">
         <v>197059</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="9" t="n">
         <v>485737</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="9" t="n">
         <v>240087</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="9" t="n">
         <v>245650</v>
       </c>
     </row>
-    <row r="61" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="9" t="n">
         <v>557727</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="9" t="n">
         <v>282459</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="9" t="n">
         <v>275268</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="9" t="n">
         <v>249032</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="9" t="n">
         <v>129819</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="9" t="n">
         <v>119213</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="9" t="n">
         <v>308695</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="9" t="n">
         <v>152640</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="9" t="n">
         <v>156055</v>
       </c>
     </row>
-    <row r="62" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="9" t="n">
         <v>562809</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="9" t="n">
         <v>294230</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="9" t="n">
         <v>268579</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="9" t="n">
         <v>186397</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="9" t="n">
         <v>99598</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="9" t="n">
         <v>86799</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="9" t="n">
         <v>376412</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="9" t="n">
         <v>194632</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="9" t="n">
         <v>181780</v>
       </c>
     </row>
-    <row r="63" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="9" t="n">
         <v>376543</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="9" t="n">
         <v>192327</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="9" t="n">
         <v>184216</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="9" t="n">
         <v>101154</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="9" t="n">
         <v>53510</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="9" t="n">
         <v>47644</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="9" t="n">
         <v>275389</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="9" t="n">
         <v>138817</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="9" t="n">
         <v>136572</v>
       </c>
     </row>
-    <row r="64" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="9" t="n">
         <v>289509</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="9" t="n">
         <v>143812</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="9" t="n">
         <v>145697</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="9" t="n">
         <v>112955</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="9" t="n">
         <v>58720</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="9" t="n">
         <v>54235</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="9" t="n">
         <v>176554</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="9" t="n">
         <v>85092</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="9" t="n">
         <v>91462</v>
       </c>
     </row>
-    <row r="65" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="9" t="n">
         <v>305861</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="9" t="n">
         <v>148163</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="9" t="n">
         <v>157698</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="9" t="n">
         <v>97286</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="9" t="n">
         <v>49040</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="9" t="n">
         <v>48246</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="9" t="n">
         <v>208575</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="9" t="n">
         <v>99123</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="9" t="n">
         <v>109452</v>
       </c>
     </row>
-    <row r="66" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="9" t="n">
         <v>830105</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="9" t="n">
         <v>408709</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="9" t="n">
         <v>421396</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="9" t="n">
         <v>336820</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="9" t="n">
         <v>174303</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="9" t="n">
         <v>162517</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="9" t="n">
         <v>493285</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="9" t="n">
         <v>234406</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="9" t="n">
         <v>258879</v>
       </c>
     </row>
-    <row r="67" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="9" t="n">
         <v>348776</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="9" t="n">
         <v>166481</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="9" t="n">
         <v>182295</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="9" t="n">
         <v>133370</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="9" t="n">
         <v>67638</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="9" t="n">
         <v>65732</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="9" t="n">
         <v>215406</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="9" t="n">
         <v>98843</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="9" t="n">
         <v>116563</v>
       </c>
     </row>
-    <row r="68" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="9" t="n">
         <v>683061</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="9" t="n">
         <v>345201</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="9" t="n">
         <v>337860</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="9" t="n">
         <v>297759</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="9" t="n">
         <v>151949</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="9" t="n">
         <v>145810</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="9" t="n">
         <v>385302</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="9" t="n">
         <v>193252</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="9" t="n">
         <v>192050</v>
       </c>
     </row>
-    <row r="69" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="9" t="n">
         <v>1158400</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="9" t="n">
         <v>562066</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="9" t="n">
         <v>596334</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="9" t="n">
         <v>525305</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="9" t="n">
         <v>261242</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="9" t="n">
         <v>264063</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="9" t="n">
         <v>633095</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="9" t="n">
         <v>300824</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="9" t="n">
         <v>332271</v>
       </c>
     </row>
-    <row r="70" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="9" t="n">
         <v>243435</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="9" t="n">
         <v>124605</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="9" t="n">
         <v>118830</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="9" t="n">
         <v>110139</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="9" t="n">
         <v>57982</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="9" t="n">
         <v>52157</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="9" t="n">
         <v>133296</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="9" t="n">
         <v>66623</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="9" t="n">
         <v>66673</v>
       </c>
     </row>
-    <row r="71" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="9" t="n">
         <v>265153</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="9" t="n">
         <v>126205</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="9" t="n">
         <v>138948</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="9" t="n">
         <v>86314</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="9" t="n">
         <v>43619</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="9" t="n">
         <v>42695</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="9" t="n">
         <v>178839</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="9" t="n">
         <v>82586</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="9" t="n">
         <v>96253</v>
       </c>
     </row>
-    <row r="72" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="9" t="n">
         <v>767481</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="9" t="n">
         <v>383155</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="9" t="n">
         <v>384326</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="9" t="n">
         <v>381947</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="9" t="n">
         <v>201214</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="9" t="n">
         <v>180733</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="9" t="n">
         <v>385534</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="9" t="n">
         <v>181941</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="9" t="n">
         <v>203593</v>
       </c>
     </row>
-    <row r="73" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="9" t="n">
         <v>468842</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="9" t="n">
         <v>250743</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="9" t="n">
         <v>218099</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="9" t="n">
         <v>258940</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="9" t="n">
         <v>141092</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="9" t="n">
         <v>117848</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="9" t="n">
         <v>209902</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="9" t="n">
         <v>109651</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="9" t="n">
         <v>100251</v>
       </c>
     </row>
-    <row r="74" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="9" t="n">
         <v>719251</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="9" t="n">
         <v>354316</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="9" t="n">
         <v>364935</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="9" t="n">
         <v>308304</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="9" t="n">
         <v>155867</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="9" t="n">
         <v>152437</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="9" t="n">
         <v>410947</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="9" t="n">
         <v>198449</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="9" t="n">
         <v>212498</v>
       </c>
     </row>
-    <row r="75" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="9" t="n">
         <v>795849</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="9" t="n">
         <v>386642</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="9" t="n">
         <v>409207</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="9" t="n">
         <v>303612</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="9" t="n">
         <v>157714</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="9" t="n">
         <v>145898</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="9" t="n">
         <v>492237</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="9" t="n">
         <v>228928</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="9" t="n">
         <v>263309</v>
       </c>
     </row>
-    <row r="76" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="9" t="n">
         <v>133143</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="9" t="n">
         <v>67462</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="9" t="n">
         <v>65681</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="9" t="n">
         <v>50799</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="9" t="n">
         <v>27871</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="9" t="n">
         <v>22928</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="9" t="n">
         <v>82344</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="9" t="n">
         <v>39591</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="9" t="n">
         <v>42753</v>
       </c>
     </row>
-    <row r="77" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="9" t="n">
         <v>1001455</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="9" t="n">
         <v>515980</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="9" t="n">
         <v>485475</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="9" t="n">
         <v>551124</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="9" t="n">
         <v>289900</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="9" t="n">
         <v>261224</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="9" t="n">
         <v>450331</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="9" t="n">
         <v>226080</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="9" t="n">
         <v>224251</v>
       </c>
     </row>
-    <row r="78" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="9" t="n">
         <v>290283</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="9" t="n">
         <v>144224</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="9" t="n">
         <v>146059</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="9" t="n">
         <v>146809</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="9" t="n">
         <v>75112</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="9" t="n">
         <v>71697</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="9" t="n">
         <v>143474</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="9" t="n">
         <v>69112</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="9" t="n">
         <v>74362</v>
       </c>
     </row>
-    <row r="79" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="9" t="n">
         <v>637433</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="9" t="n">
         <v>324624</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="9" t="n">
         <v>312809</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="9" t="n">
         <v>258967</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="9" t="n">
         <v>138166</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="9" t="n">
         <v>120801</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="9" t="n">
         <v>378466</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="9" t="n">
         <v>186458</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="9" t="n">
         <v>192008</v>
       </c>
     </row>
-    <row r="80" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="9" t="n">
         <v>579150</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="9" t="n">
         <v>282399</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="9" t="n">
         <v>296751</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="9" t="n">
         <v>208183</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="9" t="n">
         <v>105648</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="9" t="n">
         <v>102535</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="9" t="n">
         <v>370967</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="9" t="n">
         <v>176751</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="9" t="n">
         <v>194216</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="9" t="n">
         <v>1073560</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="9" t="n">
         <v>526041</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="9" t="n">
         <v>547519</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="9" t="n">
         <v>411617</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="9" t="n">
         <v>211691</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="9" t="n">
         <v>199926</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="9" t="n">
         <v>661943</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="9" t="n">
         <v>314350</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="9" t="n">
         <v>347593</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="9" t="n">
         <v>326399</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="9" t="n">
         <v>156546</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="9" t="n">
         <v>169853</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="9" t="n">
         <v>144217</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="9" t="n">
         <v>70615</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="9" t="n">
         <v>73602</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="9" t="n">
         <v>182182</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="9" t="n">
         <v>85931</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="9" t="n">
         <v>96251</v>
       </c>
     </row>
-    <row r="83" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="9" t="n">
         <v>107330</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="9" t="n">
         <v>52607</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="9" t="n">
         <v>54723</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="9" t="n">
         <v>41295</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="9" t="n">
         <v>22204</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="9" t="n">
         <v>19091</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="9" t="n">
         <v>66035</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="9" t="n">
         <v>30403</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="9" t="n">
         <v>35632</v>
       </c>
     </row>
-    <row r="84" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="9" t="n">
         <v>217536</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="9" t="n">
         <v>106762</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="9" t="n">
         <v>110774</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="9" t="n">
         <v>106051</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="9" t="n">
         <v>52910</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="9" t="n">
         <v>53141</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="9" t="n">
         <v>111485</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="9" t="n">
         <v>53852</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="9" t="n">
         <v>57633</v>
       </c>
     </row>
-    <row r="85" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="9" t="n">
         <v>349396</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="9" t="n">
         <v>177789</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="9" t="n">
         <v>171607</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="9" t="n">
         <v>243378</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="9" t="n">
         <v>125193</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="9" t="n">
         <v>118185</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="9" t="n">
         <v>106018</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="9" t="n">
         <v>52596</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="9" t="n">
         <v>53422</v>
       </c>
     </row>
-    <row r="86" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="9" t="n">
         <v>344669</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="9" t="n">
         <v>176547</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="9" t="n">
         <v>168122</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="9" t="n">
         <v>193621</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="9" t="n">
         <v>101000</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="9" t="n">
         <v>92621</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="9" t="n">
         <v>151048</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="9" t="n">
         <v>75547</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="9" t="n">
         <v>75501</v>
       </c>
     </row>
-    <row r="87" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="9" t="n">
         <v>262006</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="9" t="n">
         <v>139534</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="9" t="n">
         <v>122472</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="9" t="n">
         <v>125264</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="9" t="n">
         <v>67466</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="9" t="n">
         <v>57798</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="9" t="n">
         <v>136742</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="9" t="n">
         <v>72068</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="9" t="n">
         <v>64674</v>
       </c>
     </row>
-    <row r="88" spans="1:10" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89" spans="1:10" customFormat="1" ht="13.9" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+    <row r="91" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3293,7 +3049,12 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/years/1990.xlsx
+++ b/years/1990.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>TÜRKİYE İSTATİSTİK KURUMU</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Isparta</t>
   </si>
   <si>
-    <t>İçel</t>
+    <t>Mersin (İçel)</t>
   </si>
   <si>
     <t>İstanbul</t>
@@ -264,12 +264,6 @@
   </si>
   <si>
     <t>Şırnak</t>
-  </si>
-  <si>
-    <t>Şehir : İl ve ilçe merkezleri sınırları içindeki nüfustur.</t>
-  </si>
-  <si>
-    <t>Köy : İl ve ilçe merkezleri dışında kalan yerleşim yerlerindeki (Belde belediyeleri dahil) nüfustur.</t>
   </si>
 </sst>
 </file>
@@ -392,7 +386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,20 +419,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -518,10 +508,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87:J87"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A88" activeCellId="0" sqref="A88:A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,2386 +649,2372 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>56473035</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>28607047</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>27865988</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="9" t="n">
         <v>33326351</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <v>17247553</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="9" t="n">
         <v>16078798</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="9" t="n">
         <v>23146684</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="9" t="n">
         <v>11359494</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="9" t="n">
         <v>11787190</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <v>1934907</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>973878</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="10" t="n">
         <v>961029</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="10" t="n">
         <v>1350339</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="10" t="n">
         <v>684221</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="10" t="n">
         <v>666118</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="10" t="n">
         <v>584568</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="10" t="n">
         <v>289657</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="10" t="n">
         <v>294911</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="10" t="n">
         <v>513131</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="10" t="n">
         <v>256699</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="10" t="n">
         <v>256432</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="10" t="n">
         <v>219304</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="10" t="n">
         <v>113142</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="10" t="n">
         <v>106162</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="10" t="n">
         <v>293827</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="I16" s="10" t="n">
         <v>143557</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J16" s="10" t="n">
         <v>150270</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="10" t="n">
         <v>739223</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="10" t="n">
         <v>368950</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="10" t="n">
         <v>370273</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="10" t="n">
         <v>306209</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="10" t="n">
         <v>156784</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="10" t="n">
         <v>149425</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="10" t="n">
         <v>433014</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="10" t="n">
         <v>212166</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="10" t="n">
         <v>220848</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="10" t="n">
         <v>437093</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="10" t="n">
         <v>221327</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="10" t="n">
         <v>215766</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="10" t="n">
         <v>158758</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="10" t="n">
         <v>86687</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="10" t="n">
         <v>72071</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="10" t="n">
         <v>278335</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="10" t="n">
         <v>134640</v>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J18" s="10" t="n">
         <v>143695</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="10" t="n">
         <v>357191</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="10" t="n">
         <v>179895</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="10" t="n">
         <v>177296</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="10" t="n">
         <v>162544</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="10" t="n">
         <v>84486</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="10" t="n">
         <v>78058</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="10" t="n">
         <v>194647</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="10" t="n">
         <v>95409</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="10" t="n">
         <v>99238</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="10" t="n">
         <v>3236626</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="10" t="n">
         <v>1658276</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="10" t="n">
         <v>1578350</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="10" t="n">
         <v>2836719</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="10" t="n">
         <v>1460015</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="10" t="n">
         <v>1376704</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="10" t="n">
         <v>399907</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="10" t="n">
         <v>198261</v>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J20" s="10" t="n">
         <v>201646</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="10" t="n">
         <v>1132211</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="10" t="n">
         <v>588656</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="10" t="n">
         <v>543555</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="10" t="n">
         <v>602194</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="10" t="n">
         <v>319719</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="10" t="n">
         <v>282475</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="10" t="n">
         <v>530017</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="10" t="n">
         <v>268937</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="10" t="n">
         <v>261080</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="10" t="n">
         <v>212833</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="10" t="n">
         <v>104093</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="10" t="n">
         <v>108740</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="10" t="n">
         <v>66097</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="10" t="n">
         <v>35324</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="10" t="n">
         <v>30773</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="10" t="n">
         <v>146736</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="10" t="n">
         <v>68769</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J22" s="10" t="n">
         <v>77967</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="10" t="n">
         <v>824816</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="10" t="n">
         <v>416304</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="10" t="n">
         <v>408512</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="10" t="n">
         <v>384711</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="10" t="n">
         <v>197623</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="10" t="n">
         <v>187088</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="10" t="n">
         <v>440105</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="10" t="n">
         <v>218681</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="10" t="n">
         <v>221424</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="10" t="n">
         <v>973314</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="10" t="n">
         <v>496661</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="10" t="n">
         <v>476653</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="10" t="n">
         <v>468758</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="10" t="n">
         <v>242346</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="10" t="n">
         <v>226412</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="10" t="n">
         <v>504556</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="10" t="n">
         <v>254315</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="10" t="n">
         <v>250241</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="10" t="n">
         <v>175526</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="10" t="n">
         <v>90978</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="10" t="n">
         <v>84548</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="10" t="n">
         <v>90373</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="10" t="n">
         <v>49092</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="10" t="n">
         <v>41281</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="10" t="n">
         <v>85153</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="10" t="n">
         <v>41886</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="10" t="n">
         <v>43267</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="10" t="n">
         <v>250966</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="10" t="n">
         <v>124710</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="10" t="n">
         <v>126256</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="10" t="n">
         <v>86648</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="10" t="n">
         <v>45999</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="10" t="n">
         <v>40649</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="10" t="n">
         <v>164318</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="10" t="n">
         <v>78711</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="10" t="n">
         <v>85607</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="10" t="n">
         <v>330115</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="10" t="n">
         <v>170982</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="10" t="n">
         <v>159133</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="10" t="n">
         <v>142947</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="10" t="n">
         <v>78164</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="10" t="n">
         <v>64783</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="10" t="n">
         <v>187168</v>
       </c>
-      <c r="I27" s="9" t="n">
+      <c r="I27" s="10" t="n">
         <v>92818</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="10" t="n">
         <v>94350</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="10" t="n">
         <v>536869</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="10" t="n">
         <v>268870</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="10" t="n">
         <v>267999</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="10" t="n">
         <v>203122</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="10" t="n">
         <v>107499</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="10" t="n">
         <v>95623</v>
       </c>
-      <c r="H28" s="9" t="n">
+      <c r="H28" s="10" t="n">
         <v>333747</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="10" t="n">
         <v>161371</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="10" t="n">
         <v>172376</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="10" t="n">
         <v>254899</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="10" t="n">
         <v>129742</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="10" t="n">
         <v>125157</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="10" t="n">
         <v>129112</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="10" t="n">
         <v>69094</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="10" t="n">
         <v>60018</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="10" t="n">
         <v>125787</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="I29" s="10" t="n">
         <v>60648</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="10" t="n">
         <v>65139</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="10" t="n">
         <v>1603137</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="10" t="n">
         <v>810923</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="10" t="n">
         <v>792214</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="10" t="n">
         <v>1157805</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="10" t="n">
         <v>588468</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="10" t="n">
         <v>569337</v>
       </c>
-      <c r="H30" s="9" t="n">
+      <c r="H30" s="10" t="n">
         <v>445332</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="I30" s="10" t="n">
         <v>222455</v>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J30" s="10" t="n">
         <v>222877</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="10" t="n">
         <v>432263</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="10" t="n">
         <v>225099</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="10" t="n">
         <v>207164</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="10" t="n">
         <v>168529</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="10" t="n">
         <v>91612</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="10" t="n">
         <v>76917</v>
       </c>
-      <c r="H31" s="9" t="n">
+      <c r="H31" s="10" t="n">
         <v>263734</v>
       </c>
-      <c r="I31" s="9" t="n">
+      <c r="I31" s="10" t="n">
         <v>133487</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="10" t="n">
         <v>130247</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="10" t="n">
         <v>279129</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="10" t="n">
         <v>139025</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="10" t="n">
         <v>140104</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="10" t="n">
         <v>113855</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="10" t="n">
         <v>60885</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="10" t="n">
         <v>52970</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H32" s="10" t="n">
         <v>165274</v>
       </c>
-      <c r="I32" s="9" t="n">
+      <c r="I32" s="10" t="n">
         <v>78140</v>
       </c>
-      <c r="J32" s="9" t="n">
+      <c r="J32" s="10" t="n">
         <v>87134</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="10" t="n">
         <v>609863</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="10" t="n">
         <v>294082</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="10" t="n">
         <v>315781</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E33" s="10" t="n">
         <v>253804</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="10" t="n">
         <v>127863</v>
       </c>
-      <c r="G33" s="9" t="n">
+      <c r="G33" s="10" t="n">
         <v>125941</v>
       </c>
-      <c r="H33" s="9" t="n">
+      <c r="H33" s="10" t="n">
         <v>356059</v>
       </c>
-      <c r="I33" s="9" t="n">
+      <c r="I33" s="10" t="n">
         <v>166219</v>
       </c>
-      <c r="J33" s="9" t="n">
+      <c r="J33" s="10" t="n">
         <v>189840</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="10" t="n">
         <v>750882</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="10" t="n">
         <v>379129</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="10" t="n">
         <v>371753</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E34" s="10" t="n">
         <v>337793</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="10" t="n">
         <v>175039</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G34" s="10" t="n">
         <v>162754</v>
       </c>
-      <c r="H34" s="9" t="n">
+      <c r="H34" s="10" t="n">
         <v>413089</v>
       </c>
-      <c r="I34" s="9" t="n">
+      <c r="I34" s="10" t="n">
         <v>204090</v>
       </c>
-      <c r="J34" s="9" t="n">
+      <c r="J34" s="10" t="n">
         <v>208999</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="10" t="n">
         <v>1094996</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="10" t="n">
         <v>559446</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="10" t="n">
         <v>535550</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="10" t="n">
         <v>600640</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="10" t="n">
         <v>314180</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="G35" s="10" t="n">
         <v>286460</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H35" s="10" t="n">
         <v>494356</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I35" s="10" t="n">
         <v>245266</v>
       </c>
-      <c r="J35" s="9" t="n">
+      <c r="J35" s="10" t="n">
         <v>249090</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="10" t="n">
         <v>404599</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="10" t="n">
         <v>213966</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="10" t="n">
         <v>190633</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E36" s="10" t="n">
         <v>210421</v>
       </c>
-      <c r="F36" s="9" t="n">
+      <c r="F36" s="10" t="n">
         <v>115537</v>
       </c>
-      <c r="G36" s="9" t="n">
+      <c r="G36" s="10" t="n">
         <v>94884</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H36" s="10" t="n">
         <v>194178</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="I36" s="10" t="n">
         <v>98429</v>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J36" s="10" t="n">
         <v>95749</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="10" t="n">
         <v>498225</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="10" t="n">
         <v>247321</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="10" t="n">
         <v>250904</v>
       </c>
-      <c r="E37" s="9" t="n">
+      <c r="E37" s="10" t="n">
         <v>272790</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="10" t="n">
         <v>139006</v>
       </c>
-      <c r="G37" s="9" t="n">
+      <c r="G37" s="10" t="n">
         <v>133784</v>
       </c>
-      <c r="H37" s="9" t="n">
+      <c r="H37" s="10" t="n">
         <v>225435</v>
       </c>
-      <c r="I37" s="9" t="n">
+      <c r="I37" s="10" t="n">
         <v>108315</v>
       </c>
-      <c r="J37" s="9" t="n">
+      <c r="J37" s="10" t="n">
         <v>117120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="10" t="n">
         <v>299251</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="10" t="n">
         <v>156387</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="10" t="n">
         <v>142864</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="E38" s="10" t="n">
         <v>144144</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="10" t="n">
         <v>81121</v>
       </c>
-      <c r="G38" s="9" t="n">
+      <c r="G38" s="10" t="n">
         <v>63023</v>
       </c>
-      <c r="H38" s="9" t="n">
+      <c r="H38" s="10" t="n">
         <v>155107</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="10" t="n">
         <v>75266</v>
       </c>
-      <c r="J38" s="9" t="n">
+      <c r="J38" s="10" t="n">
         <v>79841</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="10" t="n">
         <v>848201</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="10" t="n">
         <v>427701</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="10" t="n">
         <v>420500</v>
       </c>
-      <c r="E39" s="9" t="n">
+      <c r="E39" s="10" t="n">
         <v>400348</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="F39" s="10" t="n">
         <v>213248</v>
       </c>
-      <c r="G39" s="9" t="n">
+      <c r="G39" s="10" t="n">
         <v>187100</v>
       </c>
-      <c r="H39" s="9" t="n">
+      <c r="H39" s="10" t="n">
         <v>447853</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="I39" s="10" t="n">
         <v>214453</v>
       </c>
-      <c r="J39" s="9" t="n">
+      <c r="J39" s="10" t="n">
         <v>233400</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="10" t="n">
         <v>641057</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="10" t="n">
         <v>321928</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="10" t="n">
         <v>319129</v>
       </c>
-      <c r="E40" s="9" t="n">
+      <c r="E40" s="10" t="n">
         <v>477436</v>
       </c>
-      <c r="F40" s="9" t="n">
+      <c r="F40" s="10" t="n">
         <v>240681</v>
       </c>
-      <c r="G40" s="9" t="n">
+      <c r="G40" s="10" t="n">
         <v>236755</v>
       </c>
-      <c r="H40" s="9" t="n">
+      <c r="H40" s="10" t="n">
         <v>163621</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="I40" s="10" t="n">
         <v>81247</v>
       </c>
-      <c r="J40" s="9" t="n">
+      <c r="J40" s="10" t="n">
         <v>82374</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="10" t="n">
         <v>1140594</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="10" t="n">
         <v>577881</v>
       </c>
-      <c r="D41" s="9" t="n">
+      <c r="D41" s="10" t="n">
         <v>562713</v>
       </c>
-      <c r="E41" s="9" t="n">
+      <c r="E41" s="10" t="n">
         <v>821127</v>
       </c>
-      <c r="F41" s="9" t="n">
+      <c r="F41" s="10" t="n">
         <v>422539</v>
       </c>
-      <c r="G41" s="9" t="n">
+      <c r="G41" s="10" t="n">
         <v>398588</v>
       </c>
-      <c r="H41" s="9" t="n">
+      <c r="H41" s="10" t="n">
         <v>319467</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="I41" s="10" t="n">
         <v>155342</v>
       </c>
-      <c r="J41" s="9" t="n">
+      <c r="J41" s="10" t="n">
         <v>164125</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="10" t="n">
         <v>499087</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="10" t="n">
         <v>246597</v>
       </c>
-      <c r="D42" s="9" t="n">
+      <c r="D42" s="10" t="n">
         <v>252490</v>
       </c>
-      <c r="E42" s="9" t="n">
+      <c r="E42" s="10" t="n">
         <v>219114</v>
       </c>
-      <c r="F42" s="9" t="n">
+      <c r="F42" s="10" t="n">
         <v>115381</v>
       </c>
-      <c r="G42" s="9" t="n">
+      <c r="G42" s="10" t="n">
         <v>103733</v>
       </c>
-      <c r="H42" s="9" t="n">
+      <c r="H42" s="10" t="n">
         <v>279973</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="10" t="n">
         <v>131216</v>
       </c>
-      <c r="J42" s="9" t="n">
+      <c r="J42" s="10" t="n">
         <v>148757</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="10" t="n">
         <v>169375</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="10" t="n">
         <v>81621</v>
       </c>
-      <c r="D43" s="9" t="n">
+      <c r="D43" s="10" t="n">
         <v>87754</v>
       </c>
-      <c r="E43" s="9" t="n">
+      <c r="E43" s="10" t="n">
         <v>58996</v>
       </c>
-      <c r="F43" s="9" t="n">
+      <c r="F43" s="10" t="n">
         <v>31921</v>
       </c>
-      <c r="G43" s="9" t="n">
+      <c r="G43" s="10" t="n">
         <v>27075</v>
       </c>
-      <c r="H43" s="9" t="n">
+      <c r="H43" s="10" t="n">
         <v>110379</v>
       </c>
-      <c r="I43" s="9" t="n">
+      <c r="I43" s="10" t="n">
         <v>49700</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J43" s="10" t="n">
         <v>60679</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="10" t="n">
         <v>172479</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="10" t="n">
         <v>93913</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="10" t="n">
         <v>78566</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E44" s="10" t="n">
         <v>71099</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F44" s="10" t="n">
         <v>42819</v>
       </c>
-      <c r="G44" s="9" t="n">
+      <c r="G44" s="10" t="n">
         <v>28280</v>
       </c>
-      <c r="H44" s="9" t="n">
+      <c r="H44" s="10" t="n">
         <v>101380</v>
       </c>
-      <c r="I44" s="9" t="n">
+      <c r="I44" s="10" t="n">
         <v>51094</v>
       </c>
-      <c r="J44" s="9" t="n">
+      <c r="J44" s="10" t="n">
         <v>50286</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="10" t="n">
         <v>1109754</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="10" t="n">
         <v>556548</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="10" t="n">
         <v>553206</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E45" s="10" t="n">
         <v>531707</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="10" t="n">
         <v>268762</v>
       </c>
-      <c r="G45" s="9" t="n">
+      <c r="G45" s="10" t="n">
         <v>262945</v>
       </c>
-      <c r="H45" s="9" t="n">
+      <c r="H45" s="10" t="n">
         <v>578047</v>
       </c>
-      <c r="I45" s="9" t="n">
+      <c r="I45" s="10" t="n">
         <v>287786</v>
       </c>
-      <c r="J45" s="9" t="n">
+      <c r="J45" s="10" t="n">
         <v>290261</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="10" t="n">
         <v>434771</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="10" t="n">
         <v>224403</v>
       </c>
-      <c r="D46" s="9" t="n">
+      <c r="D46" s="10" t="n">
         <v>210368</v>
       </c>
-      <c r="E46" s="9" t="n">
+      <c r="E46" s="10" t="n">
         <v>229574</v>
       </c>
-      <c r="F46" s="9" t="n">
+      <c r="F46" s="10" t="n">
         <v>125176</v>
       </c>
-      <c r="G46" s="9" t="n">
+      <c r="G46" s="10" t="n">
         <v>104398</v>
       </c>
-      <c r="H46" s="9" t="n">
+      <c r="H46" s="10" t="n">
         <v>205197</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="I46" s="10" t="n">
         <v>99227</v>
       </c>
-      <c r="J46" s="9" t="n">
+      <c r="J46" s="10" t="n">
         <v>105970</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="10" t="n">
         <v>1266995</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="10" t="n">
         <v>645244</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="10" t="n">
         <v>621751</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="10" t="n">
         <v>787284</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F47" s="10" t="n">
         <v>402880</v>
       </c>
-      <c r="G47" s="9" t="n">
+      <c r="G47" s="10" t="n">
         <v>384404</v>
       </c>
-      <c r="H47" s="9" t="n">
+      <c r="H47" s="10" t="n">
         <v>479711</v>
       </c>
-      <c r="I47" s="9" t="n">
+      <c r="I47" s="10" t="n">
         <v>242364</v>
       </c>
-      <c r="J47" s="9" t="n">
+      <c r="J47" s="10" t="n">
         <v>237347</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="10" t="n">
         <v>7309190</v>
       </c>
-      <c r="C48" s="9" t="n">
+      <c r="C48" s="10" t="n">
         <v>3798761</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D48" s="10" t="n">
         <v>3510429</v>
       </c>
-      <c r="E48" s="9" t="n">
+      <c r="E48" s="10" t="n">
         <v>6753929</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F48" s="10" t="n">
         <v>3494553</v>
       </c>
-      <c r="G48" s="9" t="n">
+      <c r="G48" s="10" t="n">
         <v>3259376</v>
       </c>
-      <c r="H48" s="9" t="n">
+      <c r="H48" s="10" t="n">
         <v>555261</v>
       </c>
-      <c r="I48" s="9" t="n">
+      <c r="I48" s="10" t="n">
         <v>304208</v>
       </c>
-      <c r="J48" s="9" t="n">
+      <c r="J48" s="10" t="n">
         <v>251053</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="10" t="n">
         <v>2694770</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="10" t="n">
         <v>1379778</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D49" s="10" t="n">
         <v>1314992</v>
       </c>
-      <c r="E49" s="9" t="n">
+      <c r="E49" s="10" t="n">
         <v>2134816</v>
       </c>
-      <c r="F49" s="9" t="n">
+      <c r="F49" s="10" t="n">
         <v>1096597</v>
       </c>
-      <c r="G49" s="9" t="n">
+      <c r="G49" s="10" t="n">
         <v>1038219</v>
       </c>
-      <c r="H49" s="9" t="n">
+      <c r="H49" s="10" t="n">
         <v>559954</v>
       </c>
-      <c r="I49" s="9" t="n">
+      <c r="I49" s="10" t="n">
         <v>283181</v>
       </c>
-      <c r="J49" s="9" t="n">
+      <c r="J49" s="10" t="n">
         <v>276773</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="10" t="n">
         <v>662155</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C50" s="10" t="n">
         <v>334065</v>
       </c>
-      <c r="D50" s="9" t="n">
+      <c r="D50" s="10" t="n">
         <v>328090</v>
       </c>
-      <c r="E50" s="9" t="n">
+      <c r="E50" s="10" t="n">
         <v>209463</v>
       </c>
-      <c r="F50" s="9" t="n">
+      <c r="F50" s="10" t="n">
         <v>116126</v>
       </c>
-      <c r="G50" s="9" t="n">
+      <c r="G50" s="10" t="n">
         <v>93337</v>
       </c>
-      <c r="H50" s="9" t="n">
+      <c r="H50" s="10" t="n">
         <v>452692</v>
       </c>
-      <c r="I50" s="9" t="n">
+      <c r="I50" s="10" t="n">
         <v>217939</v>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J50" s="10" t="n">
         <v>234753</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="9" t="n">
+      <c r="B51" s="10" t="n">
         <v>423611</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C51" s="10" t="n">
         <v>202583</v>
       </c>
-      <c r="D51" s="9" t="n">
+      <c r="D51" s="10" t="n">
         <v>221028</v>
       </c>
-      <c r="E51" s="9" t="n">
+      <c r="E51" s="10" t="n">
         <v>148710</v>
       </c>
-      <c r="F51" s="9" t="n">
+      <c r="F51" s="10" t="n">
         <v>76447</v>
       </c>
-      <c r="G51" s="9" t="n">
+      <c r="G51" s="10" t="n">
         <v>72263</v>
       </c>
-      <c r="H51" s="9" t="n">
+      <c r="H51" s="10" t="n">
         <v>274901</v>
       </c>
-      <c r="I51" s="9" t="n">
+      <c r="I51" s="10" t="n">
         <v>126136</v>
       </c>
-      <c r="J51" s="9" t="n">
+      <c r="J51" s="10" t="n">
         <v>148765</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="9" t="n">
+      <c r="B52" s="10" t="n">
         <v>943484</v>
       </c>
-      <c r="C52" s="9" t="n">
+      <c r="C52" s="10" t="n">
         <v>471874</v>
       </c>
-      <c r="D52" s="9" t="n">
+      <c r="D52" s="10" t="n">
         <v>471610</v>
       </c>
-      <c r="E52" s="9" t="n">
+      <c r="E52" s="10" t="n">
         <v>604072</v>
       </c>
-      <c r="F52" s="9" t="n">
+      <c r="F52" s="10" t="n">
         <v>308228</v>
       </c>
-      <c r="G52" s="9" t="n">
+      <c r="G52" s="10" t="n">
         <v>295844</v>
       </c>
-      <c r="H52" s="9" t="n">
+      <c r="H52" s="10" t="n">
         <v>339412</v>
       </c>
-      <c r="I52" s="9" t="n">
+      <c r="I52" s="10" t="n">
         <v>163646</v>
       </c>
-      <c r="J52" s="9" t="n">
+      <c r="J52" s="10" t="n">
         <v>175766</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="10" t="n">
         <v>309512</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="10" t="n">
         <v>166073</v>
       </c>
-      <c r="D53" s="9" t="n">
+      <c r="D53" s="10" t="n">
         <v>143439</v>
       </c>
-      <c r="E53" s="9" t="n">
+      <c r="E53" s="10" t="n">
         <v>149532</v>
       </c>
-      <c r="F53" s="9" t="n">
+      <c r="F53" s="10" t="n">
         <v>83619</v>
       </c>
-      <c r="G53" s="9" t="n">
+      <c r="G53" s="10" t="n">
         <v>65913</v>
       </c>
-      <c r="H53" s="9" t="n">
+      <c r="H53" s="10" t="n">
         <v>159980</v>
       </c>
-      <c r="I53" s="9" t="n">
+      <c r="I53" s="10" t="n">
         <v>82454</v>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J53" s="10" t="n">
         <v>77526</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="10" t="n">
         <v>256862</v>
       </c>
-      <c r="C54" s="9" t="n">
+      <c r="C54" s="10" t="n">
         <v>124639</v>
       </c>
-      <c r="D54" s="9" t="n">
+      <c r="D54" s="10" t="n">
         <v>132223</v>
       </c>
-      <c r="E54" s="9" t="n">
+      <c r="E54" s="10" t="n">
         <v>126406</v>
       </c>
-      <c r="F54" s="9" t="n">
+      <c r="F54" s="10" t="n">
         <v>63396</v>
       </c>
-      <c r="G54" s="9" t="n">
+      <c r="G54" s="10" t="n">
         <v>63010</v>
       </c>
-      <c r="H54" s="9" t="n">
+      <c r="H54" s="10" t="n">
         <v>130456</v>
       </c>
-      <c r="I54" s="9" t="n">
+      <c r="I54" s="10" t="n">
         <v>61243</v>
       </c>
-      <c r="J54" s="9" t="n">
+      <c r="J54" s="10" t="n">
         <v>69213</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="10" t="n">
         <v>936163</v>
       </c>
-      <c r="C55" s="9" t="n">
+      <c r="C55" s="10" t="n">
         <v>486436</v>
       </c>
-      <c r="D55" s="9" t="n">
+      <c r="D55" s="10" t="n">
         <v>449727</v>
       </c>
-      <c r="E55" s="9" t="n">
+      <c r="E55" s="10" t="n">
         <v>582559</v>
       </c>
-      <c r="F55" s="9" t="n">
+      <c r="F55" s="10" t="n">
         <v>303690</v>
       </c>
-      <c r="G55" s="9" t="n">
+      <c r="G55" s="10" t="n">
         <v>278869</v>
       </c>
-      <c r="H55" s="9" t="n">
+      <c r="H55" s="10" t="n">
         <v>353604</v>
       </c>
-      <c r="I55" s="9" t="n">
+      <c r="I55" s="10" t="n">
         <v>182746</v>
       </c>
-      <c r="J55" s="9" t="n">
+      <c r="J55" s="10" t="n">
         <v>170858</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="9" t="n">
+      <c r="B56" s="10" t="n">
         <v>1750303</v>
       </c>
-      <c r="C56" s="9" t="n">
+      <c r="C56" s="10" t="n">
         <v>873886</v>
       </c>
-      <c r="D56" s="9" t="n">
+      <c r="D56" s="10" t="n">
         <v>876417</v>
       </c>
-      <c r="E56" s="9" t="n">
+      <c r="E56" s="10" t="n">
         <v>963128</v>
       </c>
-      <c r="F56" s="9" t="n">
+      <c r="F56" s="10" t="n">
         <v>490789</v>
       </c>
-      <c r="G56" s="9" t="n">
+      <c r="G56" s="10" t="n">
         <v>472339</v>
       </c>
-      <c r="H56" s="9" t="n">
+      <c r="H56" s="10" t="n">
         <v>787175</v>
       </c>
-      <c r="I56" s="9" t="n">
+      <c r="I56" s="10" t="n">
         <v>383097</v>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J56" s="10" t="n">
         <v>404078</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="9" t="n">
+      <c r="B57" s="10" t="n">
         <v>578020</v>
       </c>
-      <c r="C57" s="9" t="n">
+      <c r="C57" s="10" t="n">
         <v>289866</v>
       </c>
-      <c r="D57" s="9" t="n">
+      <c r="D57" s="10" t="n">
         <v>288154</v>
       </c>
-      <c r="E57" s="9" t="n">
+      <c r="E57" s="10" t="n">
         <v>241999</v>
       </c>
-      <c r="F57" s="9" t="n">
+      <c r="F57" s="10" t="n">
         <v>124704</v>
       </c>
-      <c r="G57" s="9" t="n">
+      <c r="G57" s="10" t="n">
         <v>117295</v>
       </c>
-      <c r="H57" s="9" t="n">
+      <c r="H57" s="10" t="n">
         <v>336021</v>
       </c>
-      <c r="I57" s="9" t="n">
+      <c r="I57" s="10" t="n">
         <v>165162</v>
       </c>
-      <c r="J57" s="9" t="n">
+      <c r="J57" s="10" t="n">
         <v>170859</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="9" t="n">
+      <c r="B58" s="10" t="n">
         <v>702055</v>
       </c>
-      <c r="C58" s="9" t="n">
+      <c r="C58" s="10" t="n">
         <v>354141</v>
       </c>
-      <c r="D58" s="9" t="n">
+      <c r="D58" s="10" t="n">
         <v>347914</v>
       </c>
-      <c r="E58" s="9" t="n">
+      <c r="E58" s="10" t="n">
         <v>379188</v>
       </c>
-      <c r="F58" s="9" t="n">
+      <c r="F58" s="10" t="n">
         <v>194578</v>
       </c>
-      <c r="G58" s="9" t="n">
+      <c r="G58" s="10" t="n">
         <v>184610</v>
       </c>
-      <c r="H58" s="9" t="n">
+      <c r="H58" s="10" t="n">
         <v>322867</v>
       </c>
-      <c r="I58" s="9" t="n">
+      <c r="I58" s="10" t="n">
         <v>159563</v>
       </c>
-      <c r="J58" s="9" t="n">
+      <c r="J58" s="10" t="n">
         <v>163304</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="10" t="n">
         <v>1154418</v>
       </c>
-      <c r="C59" s="9" t="n">
+      <c r="C59" s="10" t="n">
         <v>583838</v>
       </c>
-      <c r="D59" s="9" t="n">
+      <c r="D59" s="10" t="n">
         <v>570580</v>
       </c>
-      <c r="E59" s="9" t="n">
+      <c r="E59" s="10" t="n">
         <v>590374</v>
       </c>
-      <c r="F59" s="9" t="n">
+      <c r="F59" s="10" t="n">
         <v>306274</v>
       </c>
-      <c r="G59" s="9" t="n">
+      <c r="G59" s="10" t="n">
         <v>284100</v>
       </c>
-      <c r="H59" s="9" t="n">
+      <c r="H59" s="10" t="n">
         <v>564044</v>
       </c>
-      <c r="I59" s="9" t="n">
+      <c r="I59" s="10" t="n">
         <v>277564</v>
       </c>
-      <c r="J59" s="9" t="n">
+      <c r="J59" s="10" t="n">
         <v>286480</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="9" t="n">
+      <c r="B60" s="10" t="n">
         <v>892952</v>
       </c>
-      <c r="C60" s="9" t="n">
+      <c r="C60" s="10" t="n">
         <v>450243</v>
       </c>
-      <c r="D60" s="9" t="n">
+      <c r="D60" s="10" t="n">
         <v>442709</v>
       </c>
-      <c r="E60" s="9" t="n">
+      <c r="E60" s="10" t="n">
         <v>407215</v>
       </c>
-      <c r="F60" s="9" t="n">
+      <c r="F60" s="10" t="n">
         <v>210156</v>
       </c>
-      <c r="G60" s="9" t="n">
+      <c r="G60" s="10" t="n">
         <v>197059</v>
       </c>
-      <c r="H60" s="9" t="n">
+      <c r="H60" s="10" t="n">
         <v>485737</v>
       </c>
-      <c r="I60" s="9" t="n">
+      <c r="I60" s="10" t="n">
         <v>240087</v>
       </c>
-      <c r="J60" s="9" t="n">
+      <c r="J60" s="10" t="n">
         <v>245650</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="9" t="n">
+      <c r="B61" s="10" t="n">
         <v>557727</v>
       </c>
-      <c r="C61" s="9" t="n">
+      <c r="C61" s="10" t="n">
         <v>282459</v>
       </c>
-      <c r="D61" s="9" t="n">
+      <c r="D61" s="10" t="n">
         <v>275268</v>
       </c>
-      <c r="E61" s="9" t="n">
+      <c r="E61" s="10" t="n">
         <v>249032</v>
       </c>
-      <c r="F61" s="9" t="n">
+      <c r="F61" s="10" t="n">
         <v>129819</v>
       </c>
-      <c r="G61" s="9" t="n">
+      <c r="G61" s="10" t="n">
         <v>119213</v>
       </c>
-      <c r="H61" s="9" t="n">
+      <c r="H61" s="10" t="n">
         <v>308695</v>
       </c>
-      <c r="I61" s="9" t="n">
+      <c r="I61" s="10" t="n">
         <v>152640</v>
       </c>
-      <c r="J61" s="9" t="n">
+      <c r="J61" s="10" t="n">
         <v>156055</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="9" t="n">
+      <c r="B62" s="10" t="n">
         <v>562809</v>
       </c>
-      <c r="C62" s="9" t="n">
+      <c r="C62" s="10" t="n">
         <v>294230</v>
       </c>
-      <c r="D62" s="9" t="n">
+      <c r="D62" s="10" t="n">
         <v>268579</v>
       </c>
-      <c r="E62" s="9" t="n">
+      <c r="E62" s="10" t="n">
         <v>186397</v>
       </c>
-      <c r="F62" s="9" t="n">
+      <c r="F62" s="10" t="n">
         <v>99598</v>
       </c>
-      <c r="G62" s="9" t="n">
+      <c r="G62" s="10" t="n">
         <v>86799</v>
       </c>
-      <c r="H62" s="9" t="n">
+      <c r="H62" s="10" t="n">
         <v>376412</v>
       </c>
-      <c r="I62" s="9" t="n">
+      <c r="I62" s="10" t="n">
         <v>194632</v>
       </c>
-      <c r="J62" s="9" t="n">
+      <c r="J62" s="10" t="n">
         <v>181780</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="9" t="n">
+      <c r="B63" s="10" t="n">
         <v>376543</v>
       </c>
-      <c r="C63" s="9" t="n">
+      <c r="C63" s="10" t="n">
         <v>192327</v>
       </c>
-      <c r="D63" s="9" t="n">
+      <c r="D63" s="10" t="n">
         <v>184216</v>
       </c>
-      <c r="E63" s="9" t="n">
+      <c r="E63" s="10" t="n">
         <v>101154</v>
       </c>
-      <c r="F63" s="9" t="n">
+      <c r="F63" s="10" t="n">
         <v>53510</v>
       </c>
-      <c r="G63" s="9" t="n">
+      <c r="G63" s="10" t="n">
         <v>47644</v>
       </c>
-      <c r="H63" s="9" t="n">
+      <c r="H63" s="10" t="n">
         <v>275389</v>
       </c>
-      <c r="I63" s="9" t="n">
+      <c r="I63" s="10" t="n">
         <v>138817</v>
       </c>
-      <c r="J63" s="9" t="n">
+      <c r="J63" s="10" t="n">
         <v>136572</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="9" t="n">
+      <c r="B64" s="10" t="n">
         <v>289509</v>
       </c>
-      <c r="C64" s="9" t="n">
+      <c r="C64" s="10" t="n">
         <v>143812</v>
       </c>
-      <c r="D64" s="9" t="n">
+      <c r="D64" s="10" t="n">
         <v>145697</v>
       </c>
-      <c r="E64" s="9" t="n">
+      <c r="E64" s="10" t="n">
         <v>112955</v>
       </c>
-      <c r="F64" s="9" t="n">
+      <c r="F64" s="10" t="n">
         <v>58720</v>
       </c>
-      <c r="G64" s="9" t="n">
+      <c r="G64" s="10" t="n">
         <v>54235</v>
       </c>
-      <c r="H64" s="9" t="n">
+      <c r="H64" s="10" t="n">
         <v>176554</v>
       </c>
-      <c r="I64" s="9" t="n">
+      <c r="I64" s="10" t="n">
         <v>85092</v>
       </c>
-      <c r="J64" s="9" t="n">
+      <c r="J64" s="10" t="n">
         <v>91462</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="9" t="n">
+      <c r="B65" s="10" t="n">
         <v>305861</v>
       </c>
-      <c r="C65" s="9" t="n">
+      <c r="C65" s="10" t="n">
         <v>148163</v>
       </c>
-      <c r="D65" s="9" t="n">
+      <c r="D65" s="10" t="n">
         <v>157698</v>
       </c>
-      <c r="E65" s="9" t="n">
+      <c r="E65" s="10" t="n">
         <v>97286</v>
       </c>
-      <c r="F65" s="9" t="n">
+      <c r="F65" s="10" t="n">
         <v>49040</v>
       </c>
-      <c r="G65" s="9" t="n">
+      <c r="G65" s="10" t="n">
         <v>48246</v>
       </c>
-      <c r="H65" s="9" t="n">
+      <c r="H65" s="10" t="n">
         <v>208575</v>
       </c>
-      <c r="I65" s="9" t="n">
+      <c r="I65" s="10" t="n">
         <v>99123</v>
       </c>
-      <c r="J65" s="9" t="n">
+      <c r="J65" s="10" t="n">
         <v>109452</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B66" s="10" t="n">
         <v>830105</v>
       </c>
-      <c r="C66" s="9" t="n">
+      <c r="C66" s="10" t="n">
         <v>408709</v>
       </c>
-      <c r="D66" s="9" t="n">
+      <c r="D66" s="10" t="n">
         <v>421396</v>
       </c>
-      <c r="E66" s="9" t="n">
+      <c r="E66" s="10" t="n">
         <v>336820</v>
       </c>
-      <c r="F66" s="9" t="n">
+      <c r="F66" s="10" t="n">
         <v>174303</v>
       </c>
-      <c r="G66" s="9" t="n">
+      <c r="G66" s="10" t="n">
         <v>162517</v>
       </c>
-      <c r="H66" s="9" t="n">
+      <c r="H66" s="10" t="n">
         <v>493285</v>
       </c>
-      <c r="I66" s="9" t="n">
+      <c r="I66" s="10" t="n">
         <v>234406</v>
       </c>
-      <c r="J66" s="9" t="n">
+      <c r="J66" s="10" t="n">
         <v>258879</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B67" s="10" t="n">
         <v>348776</v>
       </c>
-      <c r="C67" s="9" t="n">
+      <c r="C67" s="10" t="n">
         <v>166481</v>
       </c>
-      <c r="D67" s="9" t="n">
+      <c r="D67" s="10" t="n">
         <v>182295</v>
       </c>
-      <c r="E67" s="9" t="n">
+      <c r="E67" s="10" t="n">
         <v>133370</v>
       </c>
-      <c r="F67" s="9" t="n">
+      <c r="F67" s="10" t="n">
         <v>67638</v>
       </c>
-      <c r="G67" s="9" t="n">
+      <c r="G67" s="10" t="n">
         <v>65732</v>
       </c>
-      <c r="H67" s="9" t="n">
+      <c r="H67" s="10" t="n">
         <v>215406</v>
       </c>
-      <c r="I67" s="9" t="n">
+      <c r="I67" s="10" t="n">
         <v>98843</v>
       </c>
-      <c r="J67" s="9" t="n">
+      <c r="J67" s="10" t="n">
         <v>116563</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="9" t="n">
+      <c r="B68" s="10" t="n">
         <v>683061</v>
       </c>
-      <c r="C68" s="9" t="n">
+      <c r="C68" s="10" t="n">
         <v>345201</v>
       </c>
-      <c r="D68" s="9" t="n">
+      <c r="D68" s="10" t="n">
         <v>337860</v>
       </c>
-      <c r="E68" s="9" t="n">
+      <c r="E68" s="10" t="n">
         <v>297759</v>
       </c>
-      <c r="F68" s="9" t="n">
+      <c r="F68" s="10" t="n">
         <v>151949</v>
       </c>
-      <c r="G68" s="9" t="n">
+      <c r="G68" s="10" t="n">
         <v>145810</v>
       </c>
-      <c r="H68" s="9" t="n">
+      <c r="H68" s="10" t="n">
         <v>385302</v>
       </c>
-      <c r="I68" s="9" t="n">
+      <c r="I68" s="10" t="n">
         <v>193252</v>
       </c>
-      <c r="J68" s="9" t="n">
+      <c r="J68" s="10" t="n">
         <v>192050</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="9" t="n">
+      <c r="B69" s="10" t="n">
         <v>1158400</v>
       </c>
-      <c r="C69" s="9" t="n">
+      <c r="C69" s="10" t="n">
         <v>562066</v>
       </c>
-      <c r="D69" s="9" t="n">
+      <c r="D69" s="10" t="n">
         <v>596334</v>
       </c>
-      <c r="E69" s="9" t="n">
+      <c r="E69" s="10" t="n">
         <v>525305</v>
       </c>
-      <c r="F69" s="9" t="n">
+      <c r="F69" s="10" t="n">
         <v>261242</v>
       </c>
-      <c r="G69" s="9" t="n">
+      <c r="G69" s="10" t="n">
         <v>264063</v>
       </c>
-      <c r="H69" s="9" t="n">
+      <c r="H69" s="10" t="n">
         <v>633095</v>
       </c>
-      <c r="I69" s="9" t="n">
+      <c r="I69" s="10" t="n">
         <v>300824</v>
       </c>
-      <c r="J69" s="9" t="n">
+      <c r="J69" s="10" t="n">
         <v>332271</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="9" t="n">
+      <c r="B70" s="10" t="n">
         <v>243435</v>
       </c>
-      <c r="C70" s="9" t="n">
+      <c r="C70" s="10" t="n">
         <v>124605</v>
       </c>
-      <c r="D70" s="9" t="n">
+      <c r="D70" s="10" t="n">
         <v>118830</v>
       </c>
-      <c r="E70" s="9" t="n">
+      <c r="E70" s="10" t="n">
         <v>110139</v>
       </c>
-      <c r="F70" s="9" t="n">
+      <c r="F70" s="10" t="n">
         <v>57982</v>
       </c>
-      <c r="G70" s="9" t="n">
+      <c r="G70" s="10" t="n">
         <v>52157</v>
       </c>
-      <c r="H70" s="9" t="n">
+      <c r="H70" s="10" t="n">
         <v>133296</v>
       </c>
-      <c r="I70" s="9" t="n">
+      <c r="I70" s="10" t="n">
         <v>66623</v>
       </c>
-      <c r="J70" s="9" t="n">
+      <c r="J70" s="10" t="n">
         <v>66673</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="9" t="n">
+      <c r="B71" s="10" t="n">
         <v>265153</v>
       </c>
-      <c r="C71" s="9" t="n">
+      <c r="C71" s="10" t="n">
         <v>126205</v>
       </c>
-      <c r="D71" s="9" t="n">
+      <c r="D71" s="10" t="n">
         <v>138948</v>
       </c>
-      <c r="E71" s="9" t="n">
+      <c r="E71" s="10" t="n">
         <v>86314</v>
       </c>
-      <c r="F71" s="9" t="n">
+      <c r="F71" s="10" t="n">
         <v>43619</v>
       </c>
-      <c r="G71" s="9" t="n">
+      <c r="G71" s="10" t="n">
         <v>42695</v>
       </c>
-      <c r="H71" s="9" t="n">
+      <c r="H71" s="10" t="n">
         <v>178839</v>
       </c>
-      <c r="I71" s="9" t="n">
+      <c r="I71" s="10" t="n">
         <v>82586</v>
       </c>
-      <c r="J71" s="9" t="n">
+      <c r="J71" s="10" t="n">
         <v>96253</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="9" t="n">
+      <c r="B72" s="10" t="n">
         <v>767481</v>
       </c>
-      <c r="C72" s="9" t="n">
+      <c r="C72" s="10" t="n">
         <v>383155</v>
       </c>
-      <c r="D72" s="9" t="n">
+      <c r="D72" s="10" t="n">
         <v>384326</v>
       </c>
-      <c r="E72" s="9" t="n">
+      <c r="E72" s="10" t="n">
         <v>381947</v>
       </c>
-      <c r="F72" s="9" t="n">
+      <c r="F72" s="10" t="n">
         <v>201214</v>
       </c>
-      <c r="G72" s="9" t="n">
+      <c r="G72" s="10" t="n">
         <v>180733</v>
       </c>
-      <c r="H72" s="9" t="n">
+      <c r="H72" s="10" t="n">
         <v>385534</v>
       </c>
-      <c r="I72" s="9" t="n">
+      <c r="I72" s="10" t="n">
         <v>181941</v>
       </c>
-      <c r="J72" s="9" t="n">
+      <c r="J72" s="10" t="n">
         <v>203593</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="9" t="n">
+      <c r="B73" s="10" t="n">
         <v>468842</v>
       </c>
-      <c r="C73" s="9" t="n">
+      <c r="C73" s="10" t="n">
         <v>250743</v>
       </c>
-      <c r="D73" s="9" t="n">
+      <c r="D73" s="10" t="n">
         <v>218099</v>
       </c>
-      <c r="E73" s="9" t="n">
+      <c r="E73" s="10" t="n">
         <v>258940</v>
       </c>
-      <c r="F73" s="9" t="n">
+      <c r="F73" s="10" t="n">
         <v>141092</v>
       </c>
-      <c r="G73" s="9" t="n">
+      <c r="G73" s="10" t="n">
         <v>117848</v>
       </c>
-      <c r="H73" s="9" t="n">
+      <c r="H73" s="10" t="n">
         <v>209902</v>
       </c>
-      <c r="I73" s="9" t="n">
+      <c r="I73" s="10" t="n">
         <v>109651</v>
       </c>
-      <c r="J73" s="9" t="n">
+      <c r="J73" s="10" t="n">
         <v>100251</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="9" t="n">
+      <c r="B74" s="10" t="n">
         <v>719251</v>
       </c>
-      <c r="C74" s="9" t="n">
+      <c r="C74" s="10" t="n">
         <v>354316</v>
       </c>
-      <c r="D74" s="9" t="n">
+      <c r="D74" s="10" t="n">
         <v>364935</v>
       </c>
-      <c r="E74" s="9" t="n">
+      <c r="E74" s="10" t="n">
         <v>308304</v>
       </c>
-      <c r="F74" s="9" t="n">
+      <c r="F74" s="10" t="n">
         <v>155867</v>
       </c>
-      <c r="G74" s="9" t="n">
+      <c r="G74" s="10" t="n">
         <v>152437</v>
       </c>
-      <c r="H74" s="9" t="n">
+      <c r="H74" s="10" t="n">
         <v>410947</v>
       </c>
-      <c r="I74" s="9" t="n">
+      <c r="I74" s="10" t="n">
         <v>198449</v>
       </c>
-      <c r="J74" s="9" t="n">
+      <c r="J74" s="10" t="n">
         <v>212498</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="9" t="n">
+      <c r="B75" s="10" t="n">
         <v>795849</v>
       </c>
-      <c r="C75" s="9" t="n">
+      <c r="C75" s="10" t="n">
         <v>386642</v>
       </c>
-      <c r="D75" s="9" t="n">
+      <c r="D75" s="10" t="n">
         <v>409207</v>
       </c>
-      <c r="E75" s="9" t="n">
+      <c r="E75" s="10" t="n">
         <v>303612</v>
       </c>
-      <c r="F75" s="9" t="n">
+      <c r="F75" s="10" t="n">
         <v>157714</v>
       </c>
-      <c r="G75" s="9" t="n">
+      <c r="G75" s="10" t="n">
         <v>145898</v>
       </c>
-      <c r="H75" s="9" t="n">
+      <c r="H75" s="10" t="n">
         <v>492237</v>
       </c>
-      <c r="I75" s="9" t="n">
+      <c r="I75" s="10" t="n">
         <v>228928</v>
       </c>
-      <c r="J75" s="9" t="n">
+      <c r="J75" s="10" t="n">
         <v>263309</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="9" t="n">
+      <c r="B76" s="10" t="n">
         <v>133143</v>
       </c>
-      <c r="C76" s="9" t="n">
+      <c r="C76" s="10" t="n">
         <v>67462</v>
       </c>
-      <c r="D76" s="9" t="n">
+      <c r="D76" s="10" t="n">
         <v>65681</v>
       </c>
-      <c r="E76" s="9" t="n">
+      <c r="E76" s="10" t="n">
         <v>50799</v>
       </c>
-      <c r="F76" s="9" t="n">
+      <c r="F76" s="10" t="n">
         <v>27871</v>
       </c>
-      <c r="G76" s="9" t="n">
+      <c r="G76" s="10" t="n">
         <v>22928</v>
       </c>
-      <c r="H76" s="9" t="n">
+      <c r="H76" s="10" t="n">
         <v>82344</v>
       </c>
-      <c r="I76" s="9" t="n">
+      <c r="I76" s="10" t="n">
         <v>39591</v>
       </c>
-      <c r="J76" s="9" t="n">
+      <c r="J76" s="10" t="n">
         <v>42753</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="9" t="n">
+      <c r="B77" s="10" t="n">
         <v>1001455</v>
       </c>
-      <c r="C77" s="9" t="n">
+      <c r="C77" s="10" t="n">
         <v>515980</v>
       </c>
-      <c r="D77" s="9" t="n">
+      <c r="D77" s="10" t="n">
         <v>485475</v>
       </c>
-      <c r="E77" s="9" t="n">
+      <c r="E77" s="10" t="n">
         <v>551124</v>
       </c>
-      <c r="F77" s="9" t="n">
+      <c r="F77" s="10" t="n">
         <v>289900</v>
       </c>
-      <c r="G77" s="9" t="n">
+      <c r="G77" s="10" t="n">
         <v>261224</v>
       </c>
-      <c r="H77" s="9" t="n">
+      <c r="H77" s="10" t="n">
         <v>450331</v>
       </c>
-      <c r="I77" s="9" t="n">
+      <c r="I77" s="10" t="n">
         <v>226080</v>
       </c>
-      <c r="J77" s="9" t="n">
+      <c r="J77" s="10" t="n">
         <v>224251</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="9" t="n">
+      <c r="B78" s="10" t="n">
         <v>290283</v>
       </c>
-      <c r="C78" s="9" t="n">
+      <c r="C78" s="10" t="n">
         <v>144224</v>
       </c>
-      <c r="D78" s="9" t="n">
+      <c r="D78" s="10" t="n">
         <v>146059</v>
       </c>
-      <c r="E78" s="9" t="n">
+      <c r="E78" s="10" t="n">
         <v>146809</v>
       </c>
-      <c r="F78" s="9" t="n">
+      <c r="F78" s="10" t="n">
         <v>75112</v>
       </c>
-      <c r="G78" s="9" t="n">
+      <c r="G78" s="10" t="n">
         <v>71697</v>
       </c>
-      <c r="H78" s="9" t="n">
+      <c r="H78" s="10" t="n">
         <v>143474</v>
       </c>
-      <c r="I78" s="9" t="n">
+      <c r="I78" s="10" t="n">
         <v>69112</v>
       </c>
-      <c r="J78" s="9" t="n">
+      <c r="J78" s="10" t="n">
         <v>74362</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="9" t="n">
+      <c r="B79" s="10" t="n">
         <v>637433</v>
       </c>
-      <c r="C79" s="9" t="n">
+      <c r="C79" s="10" t="n">
         <v>324624</v>
       </c>
-      <c r="D79" s="9" t="n">
+      <c r="D79" s="10" t="n">
         <v>312809</v>
       </c>
-      <c r="E79" s="9" t="n">
+      <c r="E79" s="10" t="n">
         <v>258967</v>
       </c>
-      <c r="F79" s="9" t="n">
+      <c r="F79" s="10" t="n">
         <v>138166</v>
       </c>
-      <c r="G79" s="9" t="n">
+      <c r="G79" s="10" t="n">
         <v>120801</v>
       </c>
-      <c r="H79" s="9" t="n">
+      <c r="H79" s="10" t="n">
         <v>378466</v>
       </c>
-      <c r="I79" s="9" t="n">
+      <c r="I79" s="10" t="n">
         <v>186458</v>
       </c>
-      <c r="J79" s="9" t="n">
+      <c r="J79" s="10" t="n">
         <v>192008</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="9" t="n">
+      <c r="B80" s="10" t="n">
         <v>579150</v>
       </c>
-      <c r="C80" s="9" t="n">
+      <c r="C80" s="10" t="n">
         <v>282399</v>
       </c>
-      <c r="D80" s="9" t="n">
+      <c r="D80" s="10" t="n">
         <v>296751</v>
       </c>
-      <c r="E80" s="9" t="n">
+      <c r="E80" s="10" t="n">
         <v>208183</v>
       </c>
-      <c r="F80" s="9" t="n">
+      <c r="F80" s="10" t="n">
         <v>105648</v>
       </c>
-      <c r="G80" s="9" t="n">
+      <c r="G80" s="10" t="n">
         <v>102535</v>
       </c>
-      <c r="H80" s="9" t="n">
+      <c r="H80" s="10" t="n">
         <v>370967</v>
       </c>
-      <c r="I80" s="9" t="n">
+      <c r="I80" s="10" t="n">
         <v>176751</v>
       </c>
-      <c r="J80" s="9" t="n">
+      <c r="J80" s="10" t="n">
         <v>194216</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="9" t="n">
+      <c r="B81" s="10" t="n">
         <v>1073560</v>
       </c>
-      <c r="C81" s="9" t="n">
+      <c r="C81" s="10" t="n">
         <v>526041</v>
       </c>
-      <c r="D81" s="9" t="n">
+      <c r="D81" s="10" t="n">
         <v>547519</v>
       </c>
-      <c r="E81" s="9" t="n">
+      <c r="E81" s="10" t="n">
         <v>411617</v>
       </c>
-      <c r="F81" s="9" t="n">
+      <c r="F81" s="10" t="n">
         <v>211691</v>
       </c>
-      <c r="G81" s="9" t="n">
+      <c r="G81" s="10" t="n">
         <v>199926</v>
       </c>
-      <c r="H81" s="9" t="n">
+      <c r="H81" s="10" t="n">
         <v>661943</v>
       </c>
-      <c r="I81" s="9" t="n">
+      <c r="I81" s="10" t="n">
         <v>314350</v>
       </c>
-      <c r="J81" s="9" t="n">
+      <c r="J81" s="10" t="n">
         <v>347593</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="9" t="n">
+      <c r="B82" s="10" t="n">
         <v>326399</v>
       </c>
-      <c r="C82" s="9" t="n">
+      <c r="C82" s="10" t="n">
         <v>156546</v>
       </c>
-      <c r="D82" s="9" t="n">
+      <c r="D82" s="10" t="n">
         <v>169853</v>
       </c>
-      <c r="E82" s="9" t="n">
+      <c r="E82" s="10" t="n">
         <v>144217</v>
       </c>
-      <c r="F82" s="9" t="n">
+      <c r="F82" s="10" t="n">
         <v>70615</v>
       </c>
-      <c r="G82" s="9" t="n">
+      <c r="G82" s="10" t="n">
         <v>73602</v>
       </c>
-      <c r="H82" s="9" t="n">
+      <c r="H82" s="10" t="n">
         <v>182182</v>
       </c>
-      <c r="I82" s="9" t="n">
+      <c r="I82" s="10" t="n">
         <v>85931</v>
       </c>
-      <c r="J82" s="9" t="n">
+      <c r="J82" s="10" t="n">
         <v>96251</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="9" t="n">
+      <c r="B83" s="10" t="n">
         <v>107330</v>
       </c>
-      <c r="C83" s="9" t="n">
+      <c r="C83" s="10" t="n">
         <v>52607</v>
       </c>
-      <c r="D83" s="9" t="n">
+      <c r="D83" s="10" t="n">
         <v>54723</v>
       </c>
-      <c r="E83" s="9" t="n">
+      <c r="E83" s="10" t="n">
         <v>41295</v>
       </c>
-      <c r="F83" s="9" t="n">
+      <c r="F83" s="10" t="n">
         <v>22204</v>
       </c>
-      <c r="G83" s="9" t="n">
+      <c r="G83" s="10" t="n">
         <v>19091</v>
       </c>
-      <c r="H83" s="9" t="n">
+      <c r="H83" s="10" t="n">
         <v>66035</v>
       </c>
-      <c r="I83" s="9" t="n">
+      <c r="I83" s="10" t="n">
         <v>30403</v>
       </c>
-      <c r="J83" s="9" t="n">
+      <c r="J83" s="10" t="n">
         <v>35632</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="9" t="n">
+      <c r="B84" s="10" t="n">
         <v>217536</v>
       </c>
-      <c r="C84" s="9" t="n">
+      <c r="C84" s="10" t="n">
         <v>106762</v>
       </c>
-      <c r="D84" s="9" t="n">
+      <c r="D84" s="10" t="n">
         <v>110774</v>
       </c>
-      <c r="E84" s="9" t="n">
+      <c r="E84" s="10" t="n">
         <v>106051</v>
       </c>
-      <c r="F84" s="9" t="n">
+      <c r="F84" s="10" t="n">
         <v>52910</v>
       </c>
-      <c r="G84" s="9" t="n">
+      <c r="G84" s="10" t="n">
         <v>53141</v>
       </c>
-      <c r="H84" s="9" t="n">
+      <c r="H84" s="10" t="n">
         <v>111485</v>
       </c>
-      <c r="I84" s="9" t="n">
+      <c r="I84" s="10" t="n">
         <v>53852</v>
       </c>
-      <c r="J84" s="9" t="n">
+      <c r="J84" s="10" t="n">
         <v>57633</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="9" t="n">
+      <c r="B85" s="10" t="n">
         <v>349396</v>
       </c>
-      <c r="C85" s="9" t="n">
+      <c r="C85" s="10" t="n">
         <v>177789</v>
       </c>
-      <c r="D85" s="9" t="n">
+      <c r="D85" s="10" t="n">
         <v>171607</v>
       </c>
-      <c r="E85" s="9" t="n">
+      <c r="E85" s="10" t="n">
         <v>243378</v>
       </c>
-      <c r="F85" s="9" t="n">
+      <c r="F85" s="10" t="n">
         <v>125193</v>
       </c>
-      <c r="G85" s="9" t="n">
+      <c r="G85" s="10" t="n">
         <v>118185</v>
       </c>
-      <c r="H85" s="9" t="n">
+      <c r="H85" s="10" t="n">
         <v>106018</v>
       </c>
-      <c r="I85" s="9" t="n">
+      <c r="I85" s="10" t="n">
         <v>52596</v>
       </c>
-      <c r="J85" s="9" t="n">
+      <c r="J85" s="10" t="n">
         <v>53422</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="9" t="n">
+      <c r="B86" s="10" t="n">
         <v>344669</v>
       </c>
-      <c r="C86" s="9" t="n">
+      <c r="C86" s="10" t="n">
         <v>176547</v>
       </c>
-      <c r="D86" s="9" t="n">
+      <c r="D86" s="10" t="n">
         <v>168122</v>
       </c>
-      <c r="E86" s="9" t="n">
+      <c r="E86" s="10" t="n">
         <v>193621</v>
       </c>
-      <c r="F86" s="9" t="n">
+      <c r="F86" s="10" t="n">
         <v>101000</v>
       </c>
-      <c r="G86" s="9" t="n">
+      <c r="G86" s="10" t="n">
         <v>92621</v>
       </c>
-      <c r="H86" s="9" t="n">
+      <c r="H86" s="10" t="n">
         <v>151048</v>
       </c>
-      <c r="I86" s="9" t="n">
+      <c r="I86" s="10" t="n">
         <v>75547</v>
       </c>
-      <c r="J86" s="9" t="n">
+      <c r="J86" s="10" t="n">
         <v>75501</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="9" t="n">
+      <c r="B87" s="10" t="n">
         <v>262006</v>
       </c>
-      <c r="C87" s="9" t="n">
+      <c r="C87" s="10" t="n">
         <v>139534</v>
       </c>
-      <c r="D87" s="9" t="n">
+      <c r="D87" s="10" t="n">
         <v>122472</v>
       </c>
-      <c r="E87" s="9" t="n">
+      <c r="E87" s="10" t="n">
         <v>125264</v>
       </c>
-      <c r="F87" s="9" t="n">
+      <c r="F87" s="10" t="n">
         <v>67466</v>
       </c>
-      <c r="G87" s="9" t="n">
+      <c r="G87" s="10" t="n">
         <v>57798</v>
       </c>
-      <c r="H87" s="9" t="n">
+      <c r="H87" s="10" t="n">
         <v>136742</v>
       </c>
-      <c r="I87" s="9" t="n">
+      <c r="I87" s="10" t="n">
         <v>72068</v>
       </c>
-      <c r="J87" s="9" t="n">
+      <c r="J87" s="10" t="n">
         <v>64674</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
